--- a/datos.xlsx
+++ b/datos.xlsx
@@ -64564,6 +64564,5668 @@
         <v>34658.0</v>
       </c>
     </row>
+    <row r="10659">
+      <c r="A10659" s="2"/>
+      <c r="B10659" s="1">
+        <v>82977.0</v>
+      </c>
+    </row>
+    <row r="10660">
+      <c r="A10660" s="2"/>
+      <c r="B10660" s="1">
+        <v>82977.0</v>
+      </c>
+    </row>
+    <row r="10661">
+      <c r="A10661" s="2"/>
+      <c r="B10661" s="1">
+        <v>82977.0</v>
+      </c>
+    </row>
+    <row r="10662">
+      <c r="A10662" s="2"/>
+      <c r="B10662" s="1">
+        <v>82977.0</v>
+      </c>
+    </row>
+    <row r="10663">
+      <c r="A10663" s="2"/>
+      <c r="B10663" s="1">
+        <v>82977.0</v>
+      </c>
+    </row>
+    <row r="10664">
+      <c r="A10664" s="2"/>
+      <c r="B10664" s="1">
+        <v>97154.0</v>
+      </c>
+    </row>
+    <row r="10665">
+      <c r="A10665" s="2"/>
+      <c r="B10665" s="1">
+        <v>97154.0</v>
+      </c>
+    </row>
+    <row r="10666">
+      <c r="A10666" s="2"/>
+      <c r="B10666" s="1">
+        <v>97154.0</v>
+      </c>
+    </row>
+    <row r="10667">
+      <c r="A10667" s="2"/>
+      <c r="B10667" s="1">
+        <v>97154.0</v>
+      </c>
+    </row>
+    <row r="10668">
+      <c r="A10668" s="2"/>
+      <c r="B10668" s="1">
+        <v>97154.0</v>
+      </c>
+    </row>
+    <row r="10669">
+      <c r="A10669" s="2"/>
+      <c r="B10669" s="1">
+        <v>97154.0</v>
+      </c>
+    </row>
+    <row r="10670">
+      <c r="A10670" s="2"/>
+      <c r="B10670" s="1">
+        <v>97826.0</v>
+      </c>
+    </row>
+    <row r="10671">
+      <c r="A10671" s="2"/>
+      <c r="B10671" s="1">
+        <v>43022.0</v>
+      </c>
+    </row>
+    <row r="10672">
+      <c r="A10672" s="2"/>
+      <c r="B10672" s="1">
+        <v>43022.0</v>
+      </c>
+    </row>
+    <row r="10673">
+      <c r="A10673" s="2"/>
+      <c r="B10673" s="1">
+        <v>43022.0</v>
+      </c>
+    </row>
+    <row r="10674">
+      <c r="A10674" s="2"/>
+      <c r="B10674" s="1">
+        <v>43022.0</v>
+      </c>
+    </row>
+    <row r="10675">
+      <c r="A10675" s="2"/>
+      <c r="B10675" s="1">
+        <v>43022.0</v>
+      </c>
+    </row>
+    <row r="10676">
+      <c r="A10676" s="2"/>
+      <c r="B10676" s="1">
+        <v>43022.0</v>
+      </c>
+    </row>
+    <row r="10677">
+      <c r="A10677" s="2"/>
+      <c r="B10677" s="1">
+        <v>43022.0</v>
+      </c>
+    </row>
+    <row r="10678">
+      <c r="A10678" s="2"/>
+      <c r="B10678" s="1">
+        <v>43022.0</v>
+      </c>
+    </row>
+    <row r="10679">
+      <c r="A10679" s="2"/>
+      <c r="B10679" s="1">
+        <v>43022.0</v>
+      </c>
+    </row>
+    <row r="10680">
+      <c r="A10680" s="2"/>
+      <c r="B10680" s="1">
+        <v>43022.0</v>
+      </c>
+    </row>
+    <row r="10681">
+      <c r="A10681" s="2"/>
+      <c r="B10681" s="1">
+        <v>43022.0</v>
+      </c>
+    </row>
+    <row r="10682">
+      <c r="A10682" s="2"/>
+      <c r="B10682" s="1">
+        <v>43022.0</v>
+      </c>
+    </row>
+    <row r="10683">
+      <c r="A10683" s="2"/>
+      <c r="B10683" s="1">
+        <v>43022.0</v>
+      </c>
+    </row>
+    <row r="10684">
+      <c r="A10684" s="2"/>
+      <c r="B10684" s="1">
+        <v>76627.0</v>
+      </c>
+    </row>
+    <row r="10685">
+      <c r="A10685" s="2"/>
+      <c r="B10685" s="1">
+        <v>76627.0</v>
+      </c>
+    </row>
+    <row r="10686">
+      <c r="A10686" s="2"/>
+      <c r="B10686" s="1">
+        <v>14486.0</v>
+      </c>
+    </row>
+    <row r="10687">
+      <c r="A10687" s="2"/>
+      <c r="B10687" s="1">
+        <v>14486.0</v>
+      </c>
+    </row>
+    <row r="10688">
+      <c r="A10688" s="2"/>
+      <c r="B10688" s="1">
+        <v>14486.0</v>
+      </c>
+    </row>
+    <row r="10689">
+      <c r="A10689" s="2"/>
+      <c r="B10689" s="1">
+        <v>14486.0</v>
+      </c>
+    </row>
+    <row r="10690">
+      <c r="A10690" s="2"/>
+      <c r="B10690" s="1">
+        <v>59322.0</v>
+      </c>
+    </row>
+    <row r="10691">
+      <c r="A10691" s="2"/>
+      <c r="B10691" s="1">
+        <v>59322.0</v>
+      </c>
+    </row>
+    <row r="10692">
+      <c r="A10692" s="2"/>
+      <c r="B10692" s="1">
+        <v>59322.0</v>
+      </c>
+    </row>
+    <row r="10693">
+      <c r="A10693" s="2"/>
+      <c r="B10693" s="1">
+        <v>14458.0</v>
+      </c>
+    </row>
+    <row r="10694">
+      <c r="A10694" s="2"/>
+      <c r="B10694" s="1">
+        <v>14458.0</v>
+      </c>
+    </row>
+    <row r="10695">
+      <c r="A10695" s="2"/>
+      <c r="B10695" s="1">
+        <v>14458.0</v>
+      </c>
+    </row>
+    <row r="10696">
+      <c r="A10696" s="2"/>
+      <c r="B10696" s="1">
+        <v>53000.0</v>
+      </c>
+    </row>
+    <row r="10697">
+      <c r="A10697" s="2"/>
+      <c r="B10697" s="1">
+        <v>63285.0</v>
+      </c>
+    </row>
+    <row r="10698">
+      <c r="A10698" s="2"/>
+      <c r="B10698" s="1">
+        <v>67714.0</v>
+      </c>
+    </row>
+    <row r="10699">
+      <c r="A10699" s="2"/>
+      <c r="B10699" s="1">
+        <v>67714.0</v>
+      </c>
+    </row>
+    <row r="10700">
+      <c r="A10700" s="2"/>
+      <c r="B10700" s="1">
+        <v>67714.0</v>
+      </c>
+    </row>
+    <row r="10701">
+      <c r="A10701" s="2"/>
+      <c r="B10701" s="1">
+        <v>16539.0</v>
+      </c>
+    </row>
+    <row r="10702">
+      <c r="A10702" s="2"/>
+      <c r="B10702" s="1">
+        <v>16539.0</v>
+      </c>
+    </row>
+    <row r="10703">
+      <c r="A10703" s="2"/>
+      <c r="B10703" s="1">
+        <v>28517.0</v>
+      </c>
+    </row>
+    <row r="10704">
+      <c r="A10704" s="2"/>
+      <c r="B10704" s="1">
+        <v>16539.0</v>
+      </c>
+    </row>
+    <row r="10705">
+      <c r="A10705" s="2"/>
+      <c r="B10705" s="1">
+        <v>28517.0</v>
+      </c>
+    </row>
+    <row r="10706">
+      <c r="A10706" s="2"/>
+      <c r="B10706" s="1">
+        <v>28517.0</v>
+      </c>
+    </row>
+    <row r="10707">
+      <c r="A10707" s="2">
+        <v>45968.0</v>
+      </c>
+      <c r="B10707" s="1">
+        <v>65064.0</v>
+      </c>
+    </row>
+    <row r="10708">
+      <c r="A10708" s="2"/>
+      <c r="B10708" s="1">
+        <v>84659.0</v>
+      </c>
+    </row>
+    <row r="10709">
+      <c r="A10709" s="2"/>
+      <c r="B10709" s="1">
+        <v>84659.0</v>
+      </c>
+    </row>
+    <row r="10710">
+      <c r="A10710" s="2"/>
+      <c r="B10710" s="1">
+        <v>26920.0</v>
+      </c>
+    </row>
+    <row r="10711">
+      <c r="A10711" s="2"/>
+      <c r="B10711" s="1">
+        <v>84659.0</v>
+      </c>
+    </row>
+    <row r="10712">
+      <c r="A10712" s="2"/>
+      <c r="B10712" s="1">
+        <v>26920.0</v>
+      </c>
+    </row>
+    <row r="10713">
+      <c r="A10713" s="2"/>
+      <c r="B10713" s="1">
+        <v>26920.0</v>
+      </c>
+    </row>
+    <row r="10714">
+      <c r="A10714" s="2"/>
+      <c r="B10714" s="1">
+        <v>43829.0</v>
+      </c>
+    </row>
+    <row r="10715">
+      <c r="A10715" s="2"/>
+      <c r="B10715" s="1">
+        <v>43829.0</v>
+      </c>
+    </row>
+    <row r="10716">
+      <c r="A10716" s="2"/>
+      <c r="B10716" s="1">
+        <v>13192.0</v>
+      </c>
+    </row>
+    <row r="10717">
+      <c r="A10717" s="2"/>
+      <c r="B10717" s="1">
+        <v>94576.0</v>
+      </c>
+    </row>
+    <row r="10718">
+      <c r="A10718" s="2"/>
+      <c r="B10718" s="1">
+        <v>13192.0</v>
+      </c>
+    </row>
+    <row r="10719">
+      <c r="A10719" s="2"/>
+      <c r="B10719" s="1">
+        <v>94576.0</v>
+      </c>
+    </row>
+    <row r="10720">
+      <c r="A10720" s="2"/>
+      <c r="B10720" s="1">
+        <v>94576.0</v>
+      </c>
+    </row>
+    <row r="10721">
+      <c r="A10721" s="2"/>
+      <c r="B10721" s="1">
+        <v>70217.0</v>
+      </c>
+    </row>
+    <row r="10722">
+      <c r="A10722" s="2"/>
+      <c r="B10722" s="1">
+        <v>70217.0</v>
+      </c>
+    </row>
+    <row r="10723">
+      <c r="A10723" s="2"/>
+      <c r="B10723" s="1">
+        <v>23177.0</v>
+      </c>
+    </row>
+    <row r="10724">
+      <c r="A10724" s="2"/>
+      <c r="B10724" s="1">
+        <v>23177.0</v>
+      </c>
+    </row>
+    <row r="10725">
+      <c r="A10725" s="2"/>
+      <c r="B10725" s="1">
+        <v>21959.0</v>
+      </c>
+    </row>
+    <row r="10726">
+      <c r="A10726" s="2"/>
+      <c r="B10726" s="1">
+        <v>79034.0</v>
+      </c>
+    </row>
+    <row r="10727">
+      <c r="A10727" s="2"/>
+      <c r="B10727" s="1">
+        <v>79034.0</v>
+      </c>
+    </row>
+    <row r="10728">
+      <c r="A10728" s="2"/>
+      <c r="B10728" s="1">
+        <v>15751.0</v>
+      </c>
+    </row>
+    <row r="10729">
+      <c r="A10729" s="2"/>
+      <c r="B10729" s="1">
+        <v>79034.0</v>
+      </c>
+    </row>
+    <row r="10730">
+      <c r="A10730" s="2"/>
+      <c r="B10730" s="1">
+        <v>79034.0</v>
+      </c>
+    </row>
+    <row r="10731">
+      <c r="A10731" s="2"/>
+      <c r="B10731" s="1">
+        <v>58263.0</v>
+      </c>
+    </row>
+    <row r="10732">
+      <c r="A10732" s="2"/>
+      <c r="B10732" s="1">
+        <v>69591.0</v>
+      </c>
+    </row>
+    <row r="10733">
+      <c r="A10733" s="2"/>
+      <c r="B10733" s="1">
+        <v>78956.0</v>
+      </c>
+    </row>
+    <row r="10734">
+      <c r="A10734" s="2"/>
+      <c r="B10734" s="1">
+        <v>78956.0</v>
+      </c>
+    </row>
+    <row r="10735">
+      <c r="A10735" s="2"/>
+      <c r="B10735" s="1">
+        <v>78956.0</v>
+      </c>
+    </row>
+    <row r="10736">
+      <c r="A10736" s="2"/>
+      <c r="B10736" s="1">
+        <v>78956.0</v>
+      </c>
+    </row>
+    <row r="10737">
+      <c r="A10737" s="2"/>
+      <c r="B10737" s="1">
+        <v>78956.0</v>
+      </c>
+    </row>
+    <row r="10738">
+      <c r="A10738" s="2"/>
+      <c r="B10738" s="1">
+        <v>78956.0</v>
+      </c>
+    </row>
+    <row r="10739">
+      <c r="A10739" s="2"/>
+      <c r="B10739" s="1">
+        <v>65551.0</v>
+      </c>
+    </row>
+    <row r="10740">
+      <c r="A10740" s="2"/>
+      <c r="B10740" s="1">
+        <v>11794.0</v>
+      </c>
+    </row>
+    <row r="10741">
+      <c r="A10741" s="2"/>
+      <c r="B10741" s="1">
+        <v>10107.0</v>
+      </c>
+    </row>
+    <row r="10742">
+      <c r="A10742" s="2"/>
+      <c r="B10742" s="1">
+        <v>10107.0</v>
+      </c>
+    </row>
+    <row r="10743">
+      <c r="A10743" s="2"/>
+      <c r="B10743" s="1">
+        <v>10107.0</v>
+      </c>
+    </row>
+    <row r="10744">
+      <c r="A10744" s="2"/>
+      <c r="B10744" s="1">
+        <v>26798.0</v>
+      </c>
+    </row>
+    <row r="10745">
+      <c r="A10745" s="2"/>
+      <c r="B10745" s="1">
+        <v>26798.0</v>
+      </c>
+    </row>
+    <row r="10746">
+      <c r="A10746" s="2"/>
+      <c r="B10746" s="1">
+        <v>26798.0</v>
+      </c>
+    </row>
+    <row r="10747">
+      <c r="A10747" s="2"/>
+      <c r="B10747" s="1">
+        <v>26798.0</v>
+      </c>
+    </row>
+    <row r="10748">
+      <c r="A10748" s="2"/>
+      <c r="B10748" s="1">
+        <v>26798.0</v>
+      </c>
+    </row>
+    <row r="10749">
+      <c r="A10749" s="2"/>
+      <c r="B10749" s="1">
+        <v>19340.0</v>
+      </c>
+    </row>
+    <row r="10750">
+      <c r="A10750" s="2"/>
+      <c r="B10750" s="1">
+        <v>47113.0</v>
+      </c>
+    </row>
+    <row r="10751">
+      <c r="A10751" s="2"/>
+      <c r="B10751" s="1">
+        <v>47113.0</v>
+      </c>
+    </row>
+    <row r="10752">
+      <c r="A10752" s="2"/>
+      <c r="B10752" s="1">
+        <v>67678.0</v>
+      </c>
+    </row>
+    <row r="10753">
+      <c r="A10753" s="2"/>
+      <c r="B10753" s="1">
+        <v>67678.0</v>
+      </c>
+    </row>
+    <row r="10754">
+      <c r="A10754" s="2"/>
+      <c r="B10754" s="1">
+        <v>12834.0</v>
+      </c>
+    </row>
+    <row r="10755">
+      <c r="A10755" s="2"/>
+      <c r="B10755" s="1">
+        <v>12604.0</v>
+      </c>
+    </row>
+    <row r="10756">
+      <c r="A10756" s="2"/>
+      <c r="B10756" s="1">
+        <v>64055.0</v>
+      </c>
+    </row>
+    <row r="10757">
+      <c r="A10757" s="2"/>
+      <c r="B10757" s="1">
+        <v>64055.0</v>
+      </c>
+    </row>
+    <row r="10758">
+      <c r="A10758" s="2"/>
+      <c r="B10758" s="1">
+        <v>64055.0</v>
+      </c>
+    </row>
+    <row r="10759">
+      <c r="A10759" s="2"/>
+      <c r="B10759" s="1">
+        <v>64055.0</v>
+      </c>
+    </row>
+    <row r="10760">
+      <c r="A10760" s="2"/>
+      <c r="B10760" s="1">
+        <v>94873.0</v>
+      </c>
+    </row>
+    <row r="10761">
+      <c r="A10761" s="2"/>
+      <c r="B10761" s="1">
+        <v>94873.0</v>
+      </c>
+    </row>
+    <row r="10762">
+      <c r="A10762" s="2"/>
+      <c r="B10762" s="1">
+        <v>94873.0</v>
+      </c>
+    </row>
+    <row r="10763">
+      <c r="A10763" s="2"/>
+      <c r="B10763" s="1">
+        <v>94873.0</v>
+      </c>
+    </row>
+    <row r="10764">
+      <c r="A10764" s="2"/>
+      <c r="B10764" s="1">
+        <v>44842.0</v>
+      </c>
+    </row>
+    <row r="10765">
+      <c r="A10765" s="2"/>
+      <c r="B10765" s="1">
+        <v>44842.0</v>
+      </c>
+    </row>
+    <row r="10766">
+      <c r="A10766" s="2"/>
+      <c r="B10766" s="1">
+        <v>44842.0</v>
+      </c>
+    </row>
+    <row r="10767">
+      <c r="A10767" s="2"/>
+      <c r="B10767" s="1">
+        <v>44842.0</v>
+      </c>
+    </row>
+    <row r="10768">
+      <c r="A10768" s="2"/>
+      <c r="B10768" s="1">
+        <v>14468.0</v>
+      </c>
+    </row>
+    <row r="10769">
+      <c r="A10769" s="2"/>
+      <c r="B10769" s="1">
+        <v>14468.0</v>
+      </c>
+    </row>
+    <row r="10770">
+      <c r="A10770" s="2"/>
+      <c r="B10770" s="1">
+        <v>17420.0</v>
+      </c>
+    </row>
+    <row r="10771">
+      <c r="A10771" s="2"/>
+      <c r="B10771" s="1">
+        <v>17420.0</v>
+      </c>
+    </row>
+    <row r="10772">
+      <c r="A10772" s="2"/>
+      <c r="B10772" s="1">
+        <v>17420.0</v>
+      </c>
+    </row>
+    <row r="10773">
+      <c r="A10773" s="2"/>
+      <c r="B10773" s="1">
+        <v>17420.0</v>
+      </c>
+    </row>
+    <row r="10774">
+      <c r="A10774" s="2"/>
+      <c r="B10774" s="1">
+        <v>74079.0</v>
+      </c>
+    </row>
+    <row r="10775">
+      <c r="A10775" s="2"/>
+      <c r="B10775" s="1">
+        <v>91453.0</v>
+      </c>
+    </row>
+    <row r="10776">
+      <c r="A10776" s="2"/>
+      <c r="B10776" s="1">
+        <v>91453.0</v>
+      </c>
+    </row>
+    <row r="10777">
+      <c r="A10777" s="2"/>
+      <c r="B10777" s="1">
+        <v>40569.0</v>
+      </c>
+    </row>
+    <row r="10778">
+      <c r="A10778" s="2"/>
+      <c r="B10778" s="1">
+        <v>40569.0</v>
+      </c>
+    </row>
+    <row r="10779">
+      <c r="A10779" s="2"/>
+      <c r="B10779" s="1">
+        <v>40569.0</v>
+      </c>
+    </row>
+    <row r="10780">
+      <c r="A10780" s="2"/>
+      <c r="B10780" s="1">
+        <v>40569.0</v>
+      </c>
+    </row>
+    <row r="10781">
+      <c r="A10781" s="2"/>
+      <c r="B10781" s="1">
+        <v>40569.0</v>
+      </c>
+    </row>
+    <row r="10782">
+      <c r="A10782" s="2"/>
+      <c r="B10782" s="1">
+        <v>51777.0</v>
+      </c>
+    </row>
+    <row r="10783">
+      <c r="A10783" s="2"/>
+      <c r="B10783" s="1">
+        <v>51777.0</v>
+      </c>
+    </row>
+    <row r="10784">
+      <c r="A10784" s="2"/>
+      <c r="B10784" s="1">
+        <v>58839.0</v>
+      </c>
+    </row>
+    <row r="10785">
+      <c r="A10785" s="2"/>
+      <c r="B10785" s="1">
+        <v>99348.0</v>
+      </c>
+    </row>
+    <row r="10786">
+      <c r="A10786" s="2"/>
+      <c r="B10786" s="1">
+        <v>99348.0</v>
+      </c>
+    </row>
+    <row r="10787">
+      <c r="A10787" s="2"/>
+      <c r="B10787" s="1">
+        <v>99348.0</v>
+      </c>
+    </row>
+    <row r="10788">
+      <c r="A10788" s="2"/>
+      <c r="B10788" s="1">
+        <v>99348.0</v>
+      </c>
+    </row>
+    <row r="10789">
+      <c r="A10789" s="2"/>
+      <c r="B10789" s="1">
+        <v>99348.0</v>
+      </c>
+    </row>
+    <row r="10790">
+      <c r="A10790" s="2"/>
+      <c r="B10790" s="1">
+        <v>99348.0</v>
+      </c>
+    </row>
+    <row r="10791">
+      <c r="A10791" s="2"/>
+      <c r="B10791" s="1">
+        <v>99348.0</v>
+      </c>
+    </row>
+    <row r="10792">
+      <c r="A10792" s="2"/>
+      <c r="B10792" s="1">
+        <v>70535.0</v>
+      </c>
+    </row>
+    <row r="10793">
+      <c r="A10793" s="2"/>
+      <c r="B10793" s="1">
+        <v>21931.0</v>
+      </c>
+    </row>
+    <row r="10794">
+      <c r="A10794" s="2"/>
+      <c r="B10794" s="1">
+        <v>805140.0</v>
+      </c>
+    </row>
+    <row r="10795">
+      <c r="A10795" s="2"/>
+      <c r="B10795" s="1">
+        <v>5140.0</v>
+      </c>
+    </row>
+    <row r="10796">
+      <c r="A10796" s="2"/>
+      <c r="B10796" s="1">
+        <v>5140.0</v>
+      </c>
+    </row>
+    <row r="10797">
+      <c r="A10797" s="2"/>
+      <c r="B10797" s="1">
+        <v>5140.0</v>
+      </c>
+    </row>
+    <row r="10798">
+      <c r="A10798" s="2"/>
+      <c r="B10798" s="1">
+        <v>97624.0</v>
+      </c>
+    </row>
+    <row r="10799">
+      <c r="A10799" s="2"/>
+      <c r="B10799" s="1">
+        <v>93325.0</v>
+      </c>
+    </row>
+    <row r="10800">
+      <c r="A10800" s="2"/>
+      <c r="B10800" s="1">
+        <v>37979.0</v>
+      </c>
+    </row>
+    <row r="10801">
+      <c r="A10801" s="2"/>
+      <c r="B10801" s="1">
+        <v>12371.0</v>
+      </c>
+    </row>
+    <row r="10802">
+      <c r="A10802" s="2"/>
+      <c r="B10802" s="1">
+        <v>12371.0</v>
+      </c>
+    </row>
+    <row r="10803">
+      <c r="A10803" s="2"/>
+      <c r="B10803" s="1">
+        <v>12371.0</v>
+      </c>
+    </row>
+    <row r="10804">
+      <c r="A10804" s="2"/>
+      <c r="B10804" s="1">
+        <v>41371.0</v>
+      </c>
+    </row>
+    <row r="10805">
+      <c r="A10805" s="2"/>
+      <c r="B10805" s="1">
+        <v>42371.0</v>
+      </c>
+    </row>
+    <row r="10806">
+      <c r="A10806" s="2"/>
+      <c r="B10806" s="1">
+        <v>42371.0</v>
+      </c>
+    </row>
+    <row r="10807">
+      <c r="A10807" s="2"/>
+      <c r="B10807" s="1">
+        <v>42371.0</v>
+      </c>
+    </row>
+    <row r="10808">
+      <c r="A10808" s="2"/>
+      <c r="B10808" s="1">
+        <v>42371.0</v>
+      </c>
+    </row>
+    <row r="10809">
+      <c r="A10809" s="2">
+        <v>45969.0</v>
+      </c>
+      <c r="B10809" s="1">
+        <v>31052.0</v>
+      </c>
+    </row>
+    <row r="10810">
+      <c r="A10810" s="2"/>
+      <c r="B10810" s="1">
+        <v>84755.0</v>
+      </c>
+    </row>
+    <row r="10811">
+      <c r="A10811" s="2"/>
+      <c r="B10811" s="1">
+        <v>95306.0</v>
+      </c>
+    </row>
+    <row r="10812">
+      <c r="A10812" s="2"/>
+      <c r="B10812" s="1">
+        <v>69835.0</v>
+      </c>
+    </row>
+    <row r="10813">
+      <c r="A10813" s="2"/>
+      <c r="B10813" s="1">
+        <v>70052.0</v>
+      </c>
+    </row>
+    <row r="10814">
+      <c r="A10814" s="2"/>
+      <c r="B10814" s="1">
+        <v>78201.0</v>
+      </c>
+    </row>
+    <row r="10815">
+      <c r="A10815" s="2"/>
+      <c r="B10815" s="1">
+        <v>42785.0</v>
+      </c>
+    </row>
+    <row r="10816">
+      <c r="A10816" s="2"/>
+      <c r="B10816" s="1">
+        <v>42785.0</v>
+      </c>
+    </row>
+    <row r="10817">
+      <c r="A10817" s="2"/>
+      <c r="B10817" s="1">
+        <v>70490.0</v>
+      </c>
+    </row>
+    <row r="10818">
+      <c r="A10818" s="2"/>
+      <c r="B10818" s="1">
+        <v>97786.0</v>
+      </c>
+    </row>
+    <row r="10819">
+      <c r="A10819" s="2"/>
+      <c r="B10819" s="1">
+        <v>78603.0</v>
+      </c>
+    </row>
+    <row r="10820">
+      <c r="A10820" s="2"/>
+      <c r="B10820" s="1">
+        <v>94419.0</v>
+      </c>
+    </row>
+    <row r="10821">
+      <c r="A10821" s="2"/>
+      <c r="B10821" s="1">
+        <v>94419.0</v>
+      </c>
+    </row>
+    <row r="10822">
+      <c r="A10822" s="2"/>
+      <c r="B10822" s="1">
+        <v>94419.0</v>
+      </c>
+    </row>
+    <row r="10823">
+      <c r="A10823" s="2"/>
+      <c r="B10823" s="1">
+        <v>94419.0</v>
+      </c>
+    </row>
+    <row r="10824">
+      <c r="A10824" s="2"/>
+      <c r="B10824" s="1">
+        <v>10377.0</v>
+      </c>
+    </row>
+    <row r="10825">
+      <c r="A10825" s="2"/>
+      <c r="B10825" s="1">
+        <v>55346.0</v>
+      </c>
+    </row>
+    <row r="10826">
+      <c r="A10826" s="2"/>
+      <c r="B10826" s="1">
+        <v>55346.0</v>
+      </c>
+    </row>
+    <row r="10827">
+      <c r="A10827" s="2"/>
+      <c r="B10827" s="1">
+        <v>88701.0</v>
+      </c>
+    </row>
+    <row r="10828">
+      <c r="A10828" s="2"/>
+      <c r="B10828" s="1">
+        <v>88701.0</v>
+      </c>
+    </row>
+    <row r="10829">
+      <c r="A10829" s="2"/>
+      <c r="B10829" s="1">
+        <v>88701.0</v>
+      </c>
+    </row>
+    <row r="10830">
+      <c r="A10830" s="2"/>
+      <c r="B10830" s="1">
+        <v>17728.0</v>
+      </c>
+    </row>
+    <row r="10831">
+      <c r="A10831" s="2"/>
+      <c r="B10831" s="1">
+        <v>17728.0</v>
+      </c>
+    </row>
+    <row r="10832">
+      <c r="A10832" s="2"/>
+      <c r="B10832" s="1">
+        <v>27431.0</v>
+      </c>
+    </row>
+    <row r="10833">
+      <c r="A10833" s="2"/>
+      <c r="B10833" s="1">
+        <v>27431.0</v>
+      </c>
+    </row>
+    <row r="10834">
+      <c r="A10834" s="2"/>
+      <c r="B10834" s="1">
+        <v>33081.0</v>
+      </c>
+    </row>
+    <row r="10835">
+      <c r="A10835" s="2"/>
+      <c r="B10835" s="1">
+        <v>33081.0</v>
+      </c>
+    </row>
+    <row r="10836">
+      <c r="A10836" s="2"/>
+      <c r="B10836" s="1">
+        <v>30058.0</v>
+      </c>
+    </row>
+    <row r="10837">
+      <c r="A10837" s="2"/>
+      <c r="B10837" s="1">
+        <v>30058.0</v>
+      </c>
+    </row>
+    <row r="10838">
+      <c r="A10838" s="2"/>
+      <c r="B10838" s="1">
+        <v>33828.0</v>
+      </c>
+    </row>
+    <row r="10839">
+      <c r="A10839" s="2"/>
+      <c r="B10839" s="1">
+        <v>33828.0</v>
+      </c>
+    </row>
+    <row r="10840">
+      <c r="A10840" s="2"/>
+      <c r="B10840" s="1">
+        <v>33828.0</v>
+      </c>
+    </row>
+    <row r="10841">
+      <c r="A10841" s="2">
+        <v>45969.0</v>
+      </c>
+      <c r="B10841" s="1">
+        <v>67069.0</v>
+      </c>
+    </row>
+    <row r="10842">
+      <c r="A10842" s="2"/>
+      <c r="B10842" s="1">
+        <v>45603.0</v>
+      </c>
+    </row>
+    <row r="10843">
+      <c r="A10843" s="2"/>
+      <c r="B10843" s="1">
+        <v>419911.0</v>
+      </c>
+    </row>
+    <row r="10844">
+      <c r="A10844" s="2"/>
+      <c r="B10844" s="1">
+        <v>18915.0</v>
+      </c>
+    </row>
+    <row r="10845">
+      <c r="A10845" s="2">
+        <v>45969.0</v>
+      </c>
+      <c r="B10845" s="1">
+        <v>66666.0</v>
+      </c>
+    </row>
+    <row r="10846">
+      <c r="A10846" s="2"/>
+      <c r="B10846" s="1">
+        <v>82788.0</v>
+      </c>
+    </row>
+    <row r="10847">
+      <c r="A10847" s="2"/>
+      <c r="B10847" s="1">
+        <v>82788.0</v>
+      </c>
+    </row>
+    <row r="10848">
+      <c r="A10848" s="2"/>
+      <c r="B10848" s="1">
+        <v>54943.0</v>
+      </c>
+    </row>
+    <row r="10849">
+      <c r="A10849" s="2"/>
+      <c r="B10849" s="1">
+        <v>54943.0</v>
+      </c>
+    </row>
+    <row r="10850">
+      <c r="A10850" s="2"/>
+      <c r="B10850" s="1">
+        <v>38716.0</v>
+      </c>
+    </row>
+    <row r="10851">
+      <c r="A10851" s="2"/>
+      <c r="B10851" s="1">
+        <v>38716.0</v>
+      </c>
+    </row>
+    <row r="10852">
+      <c r="A10852" s="2"/>
+      <c r="B10852" s="1">
+        <v>38716.0</v>
+      </c>
+    </row>
+    <row r="10853">
+      <c r="A10853" s="2"/>
+      <c r="B10853" s="1">
+        <v>43888.0</v>
+      </c>
+    </row>
+    <row r="10854">
+      <c r="A10854" s="2"/>
+      <c r="B10854" s="1">
+        <v>43888.0</v>
+      </c>
+    </row>
+    <row r="10855">
+      <c r="A10855" s="2"/>
+      <c r="B10855" s="1">
+        <v>43888.0</v>
+      </c>
+    </row>
+    <row r="10856">
+      <c r="A10856" s="2"/>
+      <c r="B10856" s="1">
+        <v>43888.0</v>
+      </c>
+    </row>
+    <row r="10857">
+      <c r="A10857" s="2"/>
+      <c r="B10857" s="1">
+        <v>43888.0</v>
+      </c>
+    </row>
+    <row r="10858">
+      <c r="A10858" s="2"/>
+      <c r="B10858" s="1">
+        <v>43888.0</v>
+      </c>
+    </row>
+    <row r="10859">
+      <c r="A10859" s="2"/>
+      <c r="B10859" s="1">
+        <v>20541.0</v>
+      </c>
+    </row>
+    <row r="10860">
+      <c r="A10860" s="2"/>
+      <c r="B10860" s="1">
+        <v>78891.0</v>
+      </c>
+    </row>
+    <row r="10861">
+      <c r="A10861" s="2"/>
+      <c r="B10861" s="1">
+        <v>13964.0</v>
+      </c>
+    </row>
+    <row r="10862">
+      <c r="A10862" s="2"/>
+      <c r="B10862" s="1">
+        <v>57142.0</v>
+      </c>
+    </row>
+    <row r="10863">
+      <c r="A10863" s="2"/>
+      <c r="B10863" s="1">
+        <v>57142.0</v>
+      </c>
+    </row>
+    <row r="10864">
+      <c r="A10864" s="2"/>
+      <c r="B10864" s="1">
+        <v>57142.0</v>
+      </c>
+    </row>
+    <row r="10865">
+      <c r="A10865" s="2"/>
+      <c r="B10865" s="1">
+        <v>29231.0</v>
+      </c>
+    </row>
+    <row r="10866">
+      <c r="A10866" s="2"/>
+      <c r="B10866" s="1">
+        <v>29231.0</v>
+      </c>
+    </row>
+    <row r="10867">
+      <c r="A10867" s="2"/>
+      <c r="B10867" s="1">
+        <v>81624.0</v>
+      </c>
+    </row>
+    <row r="10868">
+      <c r="A10868" s="2"/>
+      <c r="B10868" s="1">
+        <v>81624.0</v>
+      </c>
+    </row>
+    <row r="10869">
+      <c r="A10869" s="2"/>
+      <c r="B10869" s="1">
+        <v>22042.0</v>
+      </c>
+    </row>
+    <row r="10870">
+      <c r="A10870" s="2"/>
+      <c r="B10870" s="1">
+        <v>34872.0</v>
+      </c>
+    </row>
+    <row r="10871">
+      <c r="A10871" s="2"/>
+      <c r="B10871" s="1">
+        <v>34872.0</v>
+      </c>
+    </row>
+    <row r="10872">
+      <c r="A10872" s="2"/>
+      <c r="B10872" s="1">
+        <v>34872.0</v>
+      </c>
+    </row>
+    <row r="10873">
+      <c r="A10873" s="2"/>
+      <c r="B10873" s="1">
+        <v>34872.0</v>
+      </c>
+    </row>
+    <row r="10874">
+      <c r="A10874" s="2"/>
+      <c r="B10874" s="1">
+        <v>34872.0</v>
+      </c>
+    </row>
+    <row r="10875">
+      <c r="A10875" s="2"/>
+      <c r="B10875" s="1">
+        <v>34872.0</v>
+      </c>
+    </row>
+    <row r="10876">
+      <c r="A10876" s="2"/>
+      <c r="B10876" s="1">
+        <v>34872.0</v>
+      </c>
+    </row>
+    <row r="10877">
+      <c r="A10877" s="2"/>
+      <c r="B10877" s="1">
+        <v>34872.0</v>
+      </c>
+    </row>
+    <row r="10878">
+      <c r="A10878" s="2"/>
+      <c r="B10878" s="1">
+        <v>58336.0</v>
+      </c>
+    </row>
+    <row r="10879">
+      <c r="A10879" s="2"/>
+      <c r="B10879" s="1">
+        <v>58336.0</v>
+      </c>
+    </row>
+    <row r="10880">
+      <c r="A10880" s="2"/>
+      <c r="B10880" s="1">
+        <v>58336.0</v>
+      </c>
+    </row>
+    <row r="10881">
+      <c r="A10881" s="2"/>
+      <c r="B10881" s="1">
+        <v>76979.0</v>
+      </c>
+    </row>
+    <row r="10882">
+      <c r="A10882" s="2"/>
+      <c r="B10882" s="1">
+        <v>76979.0</v>
+      </c>
+    </row>
+    <row r="10883">
+      <c r="A10883" s="2"/>
+      <c r="B10883" s="1">
+        <v>76979.0</v>
+      </c>
+    </row>
+    <row r="10884">
+      <c r="A10884" s="2"/>
+      <c r="B10884" s="1">
+        <v>76979.0</v>
+      </c>
+    </row>
+    <row r="10885">
+      <c r="A10885" s="2"/>
+      <c r="B10885" s="1">
+        <v>73555.0</v>
+      </c>
+    </row>
+    <row r="10886">
+      <c r="A10886" s="2"/>
+      <c r="B10886" s="1">
+        <v>73555.0</v>
+      </c>
+    </row>
+    <row r="10887">
+      <c r="A10887" s="2"/>
+      <c r="B10887" s="1">
+        <v>77255.0</v>
+      </c>
+    </row>
+    <row r="10888">
+      <c r="A10888" s="2"/>
+      <c r="B10888" s="1">
+        <v>77255.0</v>
+      </c>
+    </row>
+    <row r="10889">
+      <c r="A10889" s="2"/>
+      <c r="B10889" s="1">
+        <v>18697.0</v>
+      </c>
+    </row>
+    <row r="10890">
+      <c r="A10890" s="2"/>
+      <c r="B10890" s="1">
+        <v>18697.0</v>
+      </c>
+    </row>
+    <row r="10891">
+      <c r="A10891" s="2">
+        <v>45970.0</v>
+      </c>
+      <c r="B10891" s="1">
+        <v>75104.0</v>
+      </c>
+    </row>
+    <row r="10892">
+      <c r="A10892" s="2"/>
+      <c r="B10892" s="1">
+        <v>26642.0</v>
+      </c>
+    </row>
+    <row r="10893">
+      <c r="A10893" s="2"/>
+      <c r="B10893" s="1">
+        <v>43168.0</v>
+      </c>
+    </row>
+    <row r="10894">
+      <c r="A10894" s="2"/>
+      <c r="B10894" s="1">
+        <v>12013.0</v>
+      </c>
+    </row>
+    <row r="10895">
+      <c r="A10895" s="2"/>
+      <c r="B10895" s="1">
+        <v>12013.0</v>
+      </c>
+    </row>
+    <row r="10896">
+      <c r="A10896" s="2"/>
+      <c r="B10896" s="1">
+        <v>12013.0</v>
+      </c>
+    </row>
+    <row r="10897">
+      <c r="A10897" s="2"/>
+      <c r="B10897" s="1">
+        <v>43176.0</v>
+      </c>
+    </row>
+    <row r="10898">
+      <c r="A10898" s="2"/>
+      <c r="B10898" s="1">
+        <v>43176.0</v>
+      </c>
+    </row>
+    <row r="10899">
+      <c r="A10899" s="2"/>
+      <c r="B10899" s="1">
+        <v>92842.0</v>
+      </c>
+    </row>
+    <row r="10900">
+      <c r="A10900" s="2"/>
+      <c r="B10900" s="1">
+        <v>39788.0</v>
+      </c>
+    </row>
+    <row r="10901">
+      <c r="A10901" s="2"/>
+      <c r="B10901" s="1">
+        <v>39788.0</v>
+      </c>
+    </row>
+    <row r="10902">
+      <c r="A10902" s="2"/>
+      <c r="B10902" s="1">
+        <v>39788.0</v>
+      </c>
+    </row>
+    <row r="10903">
+      <c r="A10903" s="2"/>
+      <c r="B10903" s="1">
+        <v>77019.0</v>
+      </c>
+    </row>
+    <row r="10904">
+      <c r="A10904" s="2"/>
+      <c r="B10904" s="1">
+        <v>59669.0</v>
+      </c>
+    </row>
+    <row r="10905">
+      <c r="A10905" s="2"/>
+      <c r="B10905" s="1">
+        <v>71252.0</v>
+      </c>
+    </row>
+    <row r="10906">
+      <c r="A10906" s="2"/>
+      <c r="B10906" s="1">
+        <v>71252.0</v>
+      </c>
+    </row>
+    <row r="10907">
+      <c r="A10907" s="2"/>
+      <c r="B10907" s="1">
+        <v>71252.0</v>
+      </c>
+    </row>
+    <row r="10908">
+      <c r="A10908" s="3">
+        <v>45971.0</v>
+      </c>
+      <c r="B10908" s="1">
+        <v>61610.0</v>
+      </c>
+    </row>
+    <row r="10909">
+      <c r="A10909" s="2"/>
+      <c r="B10909" s="1">
+        <v>82119.0</v>
+      </c>
+    </row>
+    <row r="10910">
+      <c r="A10910" s="2"/>
+      <c r="B10910" s="1">
+        <v>82119.0</v>
+      </c>
+    </row>
+    <row r="10911">
+      <c r="A10911" s="2"/>
+      <c r="B10911" s="1">
+        <v>82119.0</v>
+      </c>
+    </row>
+    <row r="10912">
+      <c r="A10912" s="2"/>
+      <c r="B10912" s="1">
+        <v>45875.0</v>
+      </c>
+    </row>
+    <row r="10913">
+      <c r="A10913" s="2"/>
+      <c r="B10913" s="1">
+        <v>45875.0</v>
+      </c>
+    </row>
+    <row r="10914">
+      <c r="A10914" s="2"/>
+      <c r="B10914" s="1">
+        <v>45875.0</v>
+      </c>
+    </row>
+    <row r="10915">
+      <c r="A10915" s="2"/>
+      <c r="B10915" s="1">
+        <v>88528.0</v>
+      </c>
+    </row>
+    <row r="10916">
+      <c r="A10916" s="2"/>
+      <c r="B10916" s="1">
+        <v>88528.0</v>
+      </c>
+    </row>
+    <row r="10917">
+      <c r="A10917" s="2"/>
+      <c r="B10917" s="1">
+        <v>88528.0</v>
+      </c>
+    </row>
+    <row r="10918">
+      <c r="A10918" s="2"/>
+      <c r="B10918" s="1">
+        <v>90244.0</v>
+      </c>
+    </row>
+    <row r="10919">
+      <c r="A10919" s="2"/>
+      <c r="B10919" s="1">
+        <v>90244.0</v>
+      </c>
+    </row>
+    <row r="10920">
+      <c r="A10920" s="2"/>
+      <c r="B10920" s="1">
+        <v>90244.0</v>
+      </c>
+    </row>
+    <row r="10921">
+      <c r="A10921" s="2"/>
+      <c r="B10921" s="1">
+        <v>83827.0</v>
+      </c>
+    </row>
+    <row r="10922">
+      <c r="A10922" s="3">
+        <v>45971.0</v>
+      </c>
+      <c r="B10922" s="1">
+        <v>38955.0</v>
+      </c>
+    </row>
+    <row r="10923">
+      <c r="A10923" s="2"/>
+      <c r="B10923" s="1">
+        <v>38955.0</v>
+      </c>
+    </row>
+    <row r="10924">
+      <c r="A10924" s="2"/>
+      <c r="B10924" s="1">
+        <v>48241.0</v>
+      </c>
+    </row>
+    <row r="10925">
+      <c r="A10925" s="2"/>
+      <c r="B10925" s="1">
+        <v>84765.0</v>
+      </c>
+    </row>
+    <row r="10926">
+      <c r="A10926" s="2"/>
+      <c r="B10926" s="1">
+        <v>84765.0</v>
+      </c>
+    </row>
+    <row r="10927">
+      <c r="A10927" s="2"/>
+      <c r="B10927" s="1">
+        <v>84765.0</v>
+      </c>
+    </row>
+    <row r="10928">
+      <c r="A10928" s="2"/>
+      <c r="B10928" s="1">
+        <v>24253.0</v>
+      </c>
+    </row>
+    <row r="10929">
+      <c r="A10929" s="2"/>
+      <c r="B10929" s="1">
+        <v>24253.0</v>
+      </c>
+    </row>
+    <row r="10930">
+      <c r="A10930" s="2"/>
+      <c r="B10930" s="1">
+        <v>24253.0</v>
+      </c>
+    </row>
+    <row r="10931">
+      <c r="A10931" s="2"/>
+      <c r="B10931" s="1">
+        <v>91621.0</v>
+      </c>
+    </row>
+    <row r="10932">
+      <c r="A10932" s="3">
+        <v>45971.0</v>
+      </c>
+      <c r="B10932" s="1">
+        <v>62176.0</v>
+      </c>
+    </row>
+    <row r="10933">
+      <c r="A10933" s="2"/>
+      <c r="B10933" s="1">
+        <v>31405.0</v>
+      </c>
+    </row>
+    <row r="10934">
+      <c r="A10934" s="2"/>
+      <c r="B10934" s="1">
+        <v>31405.0</v>
+      </c>
+    </row>
+    <row r="10935">
+      <c r="A10935" s="2"/>
+      <c r="B10935" s="1">
+        <v>31405.0</v>
+      </c>
+    </row>
+    <row r="10936">
+      <c r="A10936" s="2"/>
+      <c r="B10936" s="1">
+        <v>97578.0</v>
+      </c>
+    </row>
+    <row r="10937">
+      <c r="A10937" s="2"/>
+      <c r="B10937" s="1">
+        <v>97578.0</v>
+      </c>
+    </row>
+    <row r="10938">
+      <c r="A10938" s="2"/>
+      <c r="B10938" s="1">
+        <v>46354.0</v>
+      </c>
+    </row>
+    <row r="10939">
+      <c r="A10939" s="2"/>
+      <c r="B10939" s="1">
+        <v>46354.0</v>
+      </c>
+    </row>
+    <row r="10940">
+      <c r="A10940" s="2"/>
+      <c r="B10940" s="1">
+        <v>46354.0</v>
+      </c>
+    </row>
+    <row r="10941">
+      <c r="A10941" s="2"/>
+      <c r="B10941" s="1">
+        <v>43205.0</v>
+      </c>
+    </row>
+    <row r="10942">
+      <c r="A10942" s="2"/>
+      <c r="B10942" s="1">
+        <v>43205.0</v>
+      </c>
+    </row>
+    <row r="10943">
+      <c r="A10943" s="2"/>
+      <c r="B10943" s="1">
+        <v>43205.0</v>
+      </c>
+    </row>
+    <row r="10944">
+      <c r="A10944" s="2"/>
+      <c r="B10944" s="1">
+        <v>43205.0</v>
+      </c>
+    </row>
+    <row r="10945">
+      <c r="A10945" s="2"/>
+      <c r="B10945" s="1">
+        <v>75991.0</v>
+      </c>
+    </row>
+    <row r="10946">
+      <c r="A10946" s="2"/>
+      <c r="B10946" s="1">
+        <v>43732.0</v>
+      </c>
+    </row>
+    <row r="10947">
+      <c r="A10947" s="2"/>
+      <c r="B10947" s="1">
+        <v>96038.0</v>
+      </c>
+    </row>
+    <row r="10948">
+      <c r="A10948" s="2"/>
+      <c r="B10948" s="1">
+        <v>96038.0</v>
+      </c>
+    </row>
+    <row r="10949">
+      <c r="A10949" s="2"/>
+      <c r="B10949" s="1">
+        <v>69428.0</v>
+      </c>
+    </row>
+    <row r="10950">
+      <c r="A10950" s="2"/>
+      <c r="B10950" s="1">
+        <v>69428.0</v>
+      </c>
+    </row>
+    <row r="10951">
+      <c r="A10951" s="2"/>
+      <c r="B10951" s="1">
+        <v>69428.0</v>
+      </c>
+    </row>
+    <row r="10952">
+      <c r="A10952" s="2"/>
+      <c r="B10952" s="1">
+        <v>69428.0</v>
+      </c>
+    </row>
+    <row r="10953">
+      <c r="A10953" s="2"/>
+      <c r="B10953" s="1">
+        <v>65312.0</v>
+      </c>
+    </row>
+    <row r="10954">
+      <c r="A10954" s="2"/>
+      <c r="B10954" s="1">
+        <v>65312.0</v>
+      </c>
+    </row>
+    <row r="10955">
+      <c r="A10955" s="2"/>
+      <c r="B10955" s="1">
+        <v>99064.0</v>
+      </c>
+    </row>
+    <row r="10956">
+      <c r="A10956" s="2"/>
+      <c r="B10956" s="1">
+        <v>91684.0</v>
+      </c>
+    </row>
+    <row r="10957">
+      <c r="A10957" s="2"/>
+      <c r="B10957" s="1">
+        <v>91684.0</v>
+      </c>
+    </row>
+    <row r="10958">
+      <c r="A10958" s="2"/>
+      <c r="B10958" s="1">
+        <v>91684.0</v>
+      </c>
+    </row>
+    <row r="10959">
+      <c r="A10959" s="2"/>
+      <c r="B10959" s="1">
+        <v>91684.0</v>
+      </c>
+    </row>
+    <row r="10960">
+      <c r="A10960" s="2"/>
+      <c r="B10960" s="1">
+        <v>91684.0</v>
+      </c>
+    </row>
+    <row r="10961">
+      <c r="A10961" s="2"/>
+      <c r="B10961" s="1">
+        <v>91684.0</v>
+      </c>
+    </row>
+    <row r="10962">
+      <c r="A10962" s="2"/>
+      <c r="B10962" s="1">
+        <v>91684.0</v>
+      </c>
+    </row>
+    <row r="10963">
+      <c r="A10963" s="2"/>
+      <c r="B10963" s="1">
+        <v>91684.0</v>
+      </c>
+    </row>
+    <row r="10964">
+      <c r="A10964" s="2"/>
+      <c r="B10964" s="1">
+        <v>44170.0</v>
+      </c>
+    </row>
+    <row r="10965">
+      <c r="A10965" s="2"/>
+      <c r="B10965" s="1">
+        <v>44170.0</v>
+      </c>
+    </row>
+    <row r="10966">
+      <c r="A10966" s="2"/>
+      <c r="B10966" s="1">
+        <v>91610.0</v>
+      </c>
+    </row>
+    <row r="10967">
+      <c r="A10967" s="2"/>
+      <c r="B10967" s="1">
+        <v>91610.0</v>
+      </c>
+    </row>
+    <row r="10968">
+      <c r="A10968" s="2"/>
+      <c r="B10968" s="1">
+        <v>91610.0</v>
+      </c>
+    </row>
+    <row r="10969">
+      <c r="A10969" s="2"/>
+      <c r="B10969" s="1">
+        <v>91610.0</v>
+      </c>
+    </row>
+    <row r="10970">
+      <c r="A10970" s="2"/>
+      <c r="B10970" s="1">
+        <v>91610.0</v>
+      </c>
+    </row>
+    <row r="10971">
+      <c r="A10971" s="2"/>
+      <c r="B10971" s="1">
+        <v>91610.0</v>
+      </c>
+    </row>
+    <row r="10972">
+      <c r="A10972" s="2"/>
+      <c r="B10972" s="1">
+        <v>77694.0</v>
+      </c>
+    </row>
+    <row r="10973">
+      <c r="A10973" s="2"/>
+      <c r="B10973" s="1">
+        <v>77694.0</v>
+      </c>
+    </row>
+    <row r="10974">
+      <c r="A10974" s="2"/>
+      <c r="B10974" s="1">
+        <v>77694.0</v>
+      </c>
+    </row>
+    <row r="10975">
+      <c r="A10975" s="2"/>
+      <c r="B10975" s="1">
+        <v>77694.0</v>
+      </c>
+    </row>
+    <row r="10976">
+      <c r="A10976" s="2"/>
+      <c r="B10976" s="1">
+        <v>77694.0</v>
+      </c>
+    </row>
+    <row r="10977">
+      <c r="A10977" s="2"/>
+      <c r="B10977" s="1">
+        <v>77694.0</v>
+      </c>
+    </row>
+    <row r="10978">
+      <c r="A10978" s="2"/>
+      <c r="B10978" s="1">
+        <v>77694.0</v>
+      </c>
+    </row>
+    <row r="10979">
+      <c r="A10979" s="2"/>
+      <c r="B10979" s="1">
+        <v>59734.0</v>
+      </c>
+    </row>
+    <row r="10980">
+      <c r="A10980" s="2"/>
+      <c r="B10980" s="1">
+        <v>59734.0</v>
+      </c>
+    </row>
+    <row r="10981">
+      <c r="A10981" s="2"/>
+      <c r="B10981" s="1">
+        <v>95847.0</v>
+      </c>
+    </row>
+    <row r="10982">
+      <c r="A10982" s="3">
+        <v>45972.0</v>
+      </c>
+      <c r="B10982" s="1">
+        <v>87649.0</v>
+      </c>
+    </row>
+    <row r="10983">
+      <c r="A10983" s="2"/>
+      <c r="B10983" s="1">
+        <v>40990.0</v>
+      </c>
+    </row>
+    <row r="10984">
+      <c r="A10984" s="2"/>
+      <c r="B10984" s="1">
+        <v>40990.0</v>
+      </c>
+    </row>
+    <row r="10985">
+      <c r="A10985" s="2"/>
+      <c r="B10985" s="1">
+        <v>40990.0</v>
+      </c>
+    </row>
+    <row r="10986">
+      <c r="A10986" s="2"/>
+      <c r="B10986" s="1">
+        <v>98302.0</v>
+      </c>
+    </row>
+    <row r="10987">
+      <c r="A10987" s="2"/>
+      <c r="B10987" s="1">
+        <v>73816.0</v>
+      </c>
+    </row>
+    <row r="10988">
+      <c r="A10988" s="2"/>
+      <c r="B10988" s="1">
+        <v>82411.0</v>
+      </c>
+    </row>
+    <row r="10989">
+      <c r="A10989" s="2"/>
+      <c r="B10989" s="1">
+        <v>62139.0</v>
+      </c>
+    </row>
+    <row r="10990">
+      <c r="A10990" s="2"/>
+      <c r="B10990" s="1">
+        <v>62139.0</v>
+      </c>
+    </row>
+    <row r="10991">
+      <c r="A10991" s="2"/>
+      <c r="B10991" s="1">
+        <v>62139.0</v>
+      </c>
+    </row>
+    <row r="10992">
+      <c r="A10992" s="2"/>
+      <c r="B10992" s="1">
+        <v>62139.0</v>
+      </c>
+    </row>
+    <row r="10993">
+      <c r="A10993" s="2"/>
+      <c r="B10993" s="1">
+        <v>27960.0</v>
+      </c>
+    </row>
+    <row r="10994">
+      <c r="A10994" s="2"/>
+      <c r="B10994" s="1">
+        <v>27960.0</v>
+      </c>
+    </row>
+    <row r="10995">
+      <c r="A10995" s="2"/>
+      <c r="B10995" s="1">
+        <v>27960.0</v>
+      </c>
+    </row>
+    <row r="10996">
+      <c r="A10996" s="2"/>
+      <c r="B10996" s="1">
+        <v>27960.0</v>
+      </c>
+    </row>
+    <row r="10997">
+      <c r="A10997" s="2"/>
+      <c r="B10997" s="1">
+        <v>41766.0</v>
+      </c>
+    </row>
+    <row r="10998">
+      <c r="A10998" s="2"/>
+      <c r="B10998" s="1">
+        <v>41766.0</v>
+      </c>
+    </row>
+    <row r="10999">
+      <c r="A10999" s="2"/>
+      <c r="B10999" s="1">
+        <v>41766.0</v>
+      </c>
+    </row>
+    <row r="11000">
+      <c r="A11000" s="2"/>
+      <c r="B11000" s="1">
+        <v>41766.0</v>
+      </c>
+    </row>
+    <row r="11001">
+      <c r="A11001" s="2"/>
+      <c r="B11001" s="1">
+        <v>41766.0</v>
+      </c>
+    </row>
+    <row r="11002">
+      <c r="A11002" s="2"/>
+      <c r="B11002" s="1">
+        <v>44563.0</v>
+      </c>
+    </row>
+    <row r="11003">
+      <c r="A11003" s="2"/>
+      <c r="B11003" s="1">
+        <v>44563.0</v>
+      </c>
+    </row>
+    <row r="11004">
+      <c r="A11004" s="2"/>
+      <c r="B11004" s="1">
+        <v>44563.0</v>
+      </c>
+    </row>
+    <row r="11005">
+      <c r="A11005" s="2"/>
+      <c r="B11005" s="1">
+        <v>49892.0</v>
+      </c>
+    </row>
+    <row r="11006">
+      <c r="A11006" s="2"/>
+      <c r="B11006" s="1">
+        <v>49892.0</v>
+      </c>
+    </row>
+    <row r="11007">
+      <c r="A11007" s="2"/>
+      <c r="B11007" s="1">
+        <v>69793.0</v>
+      </c>
+    </row>
+    <row r="11008">
+      <c r="A11008" s="2"/>
+      <c r="B11008" s="1">
+        <v>69793.0</v>
+      </c>
+    </row>
+    <row r="11009">
+      <c r="A11009" s="2"/>
+      <c r="B11009" s="1">
+        <v>69793.0</v>
+      </c>
+    </row>
+    <row r="11010">
+      <c r="A11010" s="2"/>
+      <c r="B11010" s="1">
+        <v>69793.0</v>
+      </c>
+    </row>
+    <row r="11011">
+      <c r="A11011" s="2"/>
+      <c r="B11011" s="1">
+        <v>69793.0</v>
+      </c>
+    </row>
+    <row r="11012">
+      <c r="A11012" s="2"/>
+      <c r="B11012" s="1">
+        <v>69793.0</v>
+      </c>
+    </row>
+    <row r="11013">
+      <c r="A11013" s="2"/>
+      <c r="B11013" s="1">
+        <v>69793.0</v>
+      </c>
+    </row>
+    <row r="11014">
+      <c r="A11014" s="2"/>
+      <c r="B11014" s="1">
+        <v>69793.0</v>
+      </c>
+    </row>
+    <row r="11015">
+      <c r="A11015" s="2"/>
+      <c r="B11015" s="1">
+        <v>31550.0</v>
+      </c>
+    </row>
+    <row r="11016">
+      <c r="A11016" s="2"/>
+      <c r="B11016" s="1">
+        <v>31550.0</v>
+      </c>
+    </row>
+    <row r="11017">
+      <c r="A11017" s="2"/>
+      <c r="B11017" s="1">
+        <v>31550.0</v>
+      </c>
+    </row>
+    <row r="11018">
+      <c r="A11018" s="2"/>
+      <c r="B11018" s="1">
+        <v>54670.0</v>
+      </c>
+    </row>
+    <row r="11019">
+      <c r="A11019" s="2"/>
+      <c r="B11019" s="1">
+        <v>54670.0</v>
+      </c>
+    </row>
+    <row r="11020">
+      <c r="A11020" s="2"/>
+      <c r="B11020" s="1">
+        <v>94373.0</v>
+      </c>
+    </row>
+    <row r="11021">
+      <c r="A11021" s="2"/>
+      <c r="B11021" s="1">
+        <v>94373.0</v>
+      </c>
+    </row>
+    <row r="11022">
+      <c r="A11022" s="2"/>
+      <c r="B11022" s="1">
+        <v>94373.0</v>
+      </c>
+    </row>
+    <row r="11023">
+      <c r="A11023" s="2"/>
+      <c r="B11023" s="1">
+        <v>94373.0</v>
+      </c>
+    </row>
+    <row r="11024">
+      <c r="A11024" s="2"/>
+      <c r="B11024" s="1">
+        <v>94373.0</v>
+      </c>
+    </row>
+    <row r="11025">
+      <c r="A11025" s="2"/>
+      <c r="B11025" s="1">
+        <v>94373.0</v>
+      </c>
+    </row>
+    <row r="11026">
+      <c r="A11026" s="2"/>
+      <c r="B11026" s="1">
+        <v>36640.0</v>
+      </c>
+    </row>
+    <row r="11027">
+      <c r="A11027" s="2"/>
+      <c r="B11027" s="1">
+        <v>36640.0</v>
+      </c>
+    </row>
+    <row r="11028">
+      <c r="A11028" s="2"/>
+      <c r="B11028" s="1">
+        <v>36640.0</v>
+      </c>
+    </row>
+    <row r="11029">
+      <c r="A11029" s="2"/>
+      <c r="B11029" s="1">
+        <v>91050.0</v>
+      </c>
+    </row>
+    <row r="11030">
+      <c r="A11030" s="2"/>
+      <c r="B11030" s="1">
+        <v>91050.0</v>
+      </c>
+    </row>
+    <row r="11031">
+      <c r="A11031" s="2"/>
+      <c r="B11031" s="1">
+        <v>74390.0</v>
+      </c>
+    </row>
+    <row r="11032">
+      <c r="A11032" s="2"/>
+      <c r="B11032" s="1">
+        <v>74390.0</v>
+      </c>
+    </row>
+    <row r="11033">
+      <c r="A11033" s="2"/>
+      <c r="B11033" s="1">
+        <v>45183.0</v>
+      </c>
+    </row>
+    <row r="11034">
+      <c r="A11034" s="2"/>
+      <c r="B11034" s="1">
+        <v>45183.0</v>
+      </c>
+    </row>
+    <row r="11035">
+      <c r="A11035" s="2"/>
+      <c r="B11035" s="1">
+        <v>2096.0</v>
+      </c>
+    </row>
+    <row r="11036">
+      <c r="A11036" s="2"/>
+      <c r="B11036" s="1">
+        <v>2096.0</v>
+      </c>
+    </row>
+    <row r="11037">
+      <c r="A11037" s="2"/>
+      <c r="B11037" s="1">
+        <v>38105.0</v>
+      </c>
+    </row>
+    <row r="11038">
+      <c r="A11038" s="2"/>
+      <c r="B11038" s="1">
+        <v>38105.0</v>
+      </c>
+    </row>
+    <row r="11039">
+      <c r="A11039" s="2"/>
+      <c r="B11039" s="1">
+        <v>40668.0</v>
+      </c>
+    </row>
+    <row r="11040">
+      <c r="A11040" s="2"/>
+      <c r="B11040" s="1">
+        <v>40668.0</v>
+      </c>
+    </row>
+    <row r="11041">
+      <c r="A11041" s="2"/>
+      <c r="B11041" s="1">
+        <v>40668.0</v>
+      </c>
+    </row>
+    <row r="11042">
+      <c r="A11042" s="2"/>
+      <c r="B11042" s="1">
+        <v>52507.0</v>
+      </c>
+    </row>
+    <row r="11043">
+      <c r="A11043" s="2"/>
+      <c r="B11043" s="1">
+        <v>52507.0</v>
+      </c>
+    </row>
+    <row r="11044">
+      <c r="A11044" s="2"/>
+      <c r="B11044" s="1">
+        <v>93192.0</v>
+      </c>
+    </row>
+    <row r="11045">
+      <c r="A11045" s="2"/>
+      <c r="B11045" s="1">
+        <v>93192.0</v>
+      </c>
+    </row>
+    <row r="11046">
+      <c r="A11046" s="2"/>
+      <c r="B11046" s="1">
+        <v>93192.0</v>
+      </c>
+    </row>
+    <row r="11047">
+      <c r="A11047" s="2"/>
+      <c r="B11047" s="1">
+        <v>43648.0</v>
+      </c>
+    </row>
+    <row r="11048">
+      <c r="A11048" s="2"/>
+      <c r="B11048" s="1">
+        <v>66730.0</v>
+      </c>
+    </row>
+    <row r="11049">
+      <c r="A11049" s="2"/>
+      <c r="B11049" s="1">
+        <v>30725.0</v>
+      </c>
+    </row>
+    <row r="11050">
+      <c r="A11050" s="2"/>
+      <c r="B11050" s="1">
+        <v>30725.0</v>
+      </c>
+    </row>
+    <row r="11051">
+      <c r="A11051" s="2"/>
+      <c r="B11051" s="1">
+        <v>30725.0</v>
+      </c>
+    </row>
+    <row r="11052">
+      <c r="A11052" s="2"/>
+      <c r="B11052" s="1">
+        <v>53907.0</v>
+      </c>
+    </row>
+    <row r="11053">
+      <c r="A11053" s="2"/>
+      <c r="B11053" s="1">
+        <v>53907.0</v>
+      </c>
+    </row>
+    <row r="11054">
+      <c r="A11054" s="2"/>
+      <c r="B11054" s="1">
+        <v>89865.0</v>
+      </c>
+    </row>
+    <row r="11055">
+      <c r="A11055" s="3">
+        <v>45973.0</v>
+      </c>
+      <c r="B11055" s="1">
+        <v>44727.0</v>
+      </c>
+    </row>
+    <row r="11056">
+      <c r="A11056" s="2"/>
+      <c r="B11056" s="1">
+        <v>44727.0</v>
+      </c>
+    </row>
+    <row r="11057">
+      <c r="A11057" s="2"/>
+      <c r="B11057" s="1">
+        <v>37865.0</v>
+      </c>
+    </row>
+    <row r="11058">
+      <c r="A11058" s="2"/>
+      <c r="B11058" s="1">
+        <v>37865.0</v>
+      </c>
+    </row>
+    <row r="11059">
+      <c r="A11059" s="2"/>
+      <c r="B11059" s="1">
+        <v>37865.0</v>
+      </c>
+    </row>
+    <row r="11060">
+      <c r="A11060" s="2"/>
+      <c r="B11060" s="1">
+        <v>44727.0</v>
+      </c>
+    </row>
+    <row r="11061">
+      <c r="A11061" s="2"/>
+      <c r="B11061" s="1">
+        <v>37865.0</v>
+      </c>
+    </row>
+    <row r="11062">
+      <c r="A11062" s="2"/>
+      <c r="B11062" s="1">
+        <v>25369.0</v>
+      </c>
+    </row>
+    <row r="11063">
+      <c r="A11063" s="2"/>
+      <c r="B11063" s="1">
+        <v>25369.0</v>
+      </c>
+    </row>
+    <row r="11064">
+      <c r="A11064" s="2"/>
+      <c r="B11064" s="1">
+        <v>39989.0</v>
+      </c>
+    </row>
+    <row r="11065">
+      <c r="A11065" s="2"/>
+      <c r="B11065" s="1">
+        <v>39989.0</v>
+      </c>
+    </row>
+    <row r="11066">
+      <c r="A11066" s="2"/>
+      <c r="B11066" s="1">
+        <v>51808.0</v>
+      </c>
+    </row>
+    <row r="11067">
+      <c r="A11067" s="2"/>
+      <c r="B11067" s="1">
+        <v>51808.0</v>
+      </c>
+    </row>
+    <row r="11068">
+      <c r="A11068" s="2"/>
+      <c r="B11068" s="1">
+        <v>51808.0</v>
+      </c>
+    </row>
+    <row r="11069">
+      <c r="A11069" s="2"/>
+      <c r="B11069" s="1">
+        <v>82589.0</v>
+      </c>
+    </row>
+    <row r="11070">
+      <c r="A11070" s="2"/>
+      <c r="B11070" s="1">
+        <v>32463.0</v>
+      </c>
+    </row>
+    <row r="11071">
+      <c r="A11071" s="2"/>
+      <c r="B11071" s="1">
+        <v>32463.0</v>
+      </c>
+    </row>
+    <row r="11072">
+      <c r="A11072" s="2"/>
+      <c r="B11072" s="1">
+        <v>32463.0</v>
+      </c>
+    </row>
+    <row r="11073">
+      <c r="A11073" s="2"/>
+      <c r="B11073" s="1">
+        <v>69558.0</v>
+      </c>
+    </row>
+    <row r="11074">
+      <c r="A11074" s="2"/>
+      <c r="B11074" s="1">
+        <v>87046.0</v>
+      </c>
+    </row>
+    <row r="11075">
+      <c r="A11075" s="2"/>
+      <c r="B11075" s="1">
+        <v>95482.0</v>
+      </c>
+    </row>
+    <row r="11076">
+      <c r="A11076" s="2"/>
+      <c r="B11076" s="1">
+        <v>29855.0</v>
+      </c>
+    </row>
+    <row r="11077">
+      <c r="A11077" s="2"/>
+      <c r="B11077" s="1">
+        <v>63315.0</v>
+      </c>
+    </row>
+    <row r="11078">
+      <c r="A11078" s="2"/>
+      <c r="B11078" s="1">
+        <v>18864.0</v>
+      </c>
+    </row>
+    <row r="11079">
+      <c r="A11079" s="2"/>
+      <c r="B11079" s="1">
+        <v>18864.0</v>
+      </c>
+    </row>
+    <row r="11080">
+      <c r="A11080" s="2"/>
+      <c r="B11080" s="1">
+        <v>36981.0</v>
+      </c>
+    </row>
+    <row r="11081">
+      <c r="A11081" s="2"/>
+      <c r="B11081" s="1">
+        <v>36981.0</v>
+      </c>
+    </row>
+    <row r="11082">
+      <c r="A11082" s="2"/>
+      <c r="B11082" s="1">
+        <v>36981.0</v>
+      </c>
+    </row>
+    <row r="11083">
+      <c r="A11083" s="2"/>
+      <c r="B11083" s="1">
+        <v>36981.0</v>
+      </c>
+    </row>
+    <row r="11084">
+      <c r="A11084" s="2"/>
+      <c r="B11084" s="1">
+        <v>72257.0</v>
+      </c>
+    </row>
+    <row r="11085">
+      <c r="A11085" s="2"/>
+      <c r="B11085" s="1">
+        <v>72257.0</v>
+      </c>
+    </row>
+    <row r="11086">
+      <c r="A11086" s="2"/>
+      <c r="B11086" s="1">
+        <v>59135.0</v>
+      </c>
+    </row>
+    <row r="11087">
+      <c r="A11087" s="2"/>
+      <c r="B11087" s="1">
+        <v>59135.0</v>
+      </c>
+    </row>
+    <row r="11088">
+      <c r="A11088" s="2"/>
+      <c r="B11088" s="1">
+        <v>96266.0</v>
+      </c>
+    </row>
+    <row r="11089">
+      <c r="A11089" s="2"/>
+      <c r="B11089" s="1">
+        <v>96266.0</v>
+      </c>
+    </row>
+    <row r="11090">
+      <c r="A11090" s="2"/>
+      <c r="B11090" s="1">
+        <v>96266.0</v>
+      </c>
+    </row>
+    <row r="11091">
+      <c r="A11091" s="2"/>
+      <c r="B11091" s="1">
+        <v>96266.0</v>
+      </c>
+    </row>
+    <row r="11092">
+      <c r="A11092" s="2"/>
+      <c r="B11092" s="1">
+        <v>57807.0</v>
+      </c>
+    </row>
+    <row r="11093">
+      <c r="A11093" s="2"/>
+      <c r="B11093" s="1">
+        <v>57807.0</v>
+      </c>
+    </row>
+    <row r="11094">
+      <c r="A11094" s="2"/>
+      <c r="B11094" s="1">
+        <v>57807.0</v>
+      </c>
+    </row>
+    <row r="11095">
+      <c r="A11095" s="2"/>
+      <c r="B11095" s="1">
+        <v>57807.0</v>
+      </c>
+    </row>
+    <row r="11096">
+      <c r="A11096" s="2"/>
+      <c r="B11096" s="1">
+        <v>57807.0</v>
+      </c>
+    </row>
+    <row r="11097">
+      <c r="A11097" s="2"/>
+      <c r="B11097" s="1">
+        <v>57807.0</v>
+      </c>
+    </row>
+    <row r="11098">
+      <c r="A11098" s="2"/>
+      <c r="B11098" s="1">
+        <v>57807.0</v>
+      </c>
+    </row>
+    <row r="11099">
+      <c r="A11099" s="2"/>
+      <c r="B11099" s="1">
+        <v>34736.0</v>
+      </c>
+    </row>
+    <row r="11100">
+      <c r="A11100" s="2"/>
+      <c r="B11100" s="1">
+        <v>34736.0</v>
+      </c>
+    </row>
+    <row r="11101">
+      <c r="A11101" s="2"/>
+      <c r="B11101" s="1">
+        <v>34736.0</v>
+      </c>
+    </row>
+    <row r="11102">
+      <c r="A11102" s="2"/>
+      <c r="B11102" s="1">
+        <v>29302.0</v>
+      </c>
+    </row>
+    <row r="11103">
+      <c r="A11103" s="2"/>
+      <c r="B11103" s="1">
+        <v>29302.0</v>
+      </c>
+    </row>
+    <row r="11104">
+      <c r="A11104" s="2"/>
+      <c r="B11104" s="1">
+        <v>29302.0</v>
+      </c>
+    </row>
+    <row r="11105">
+      <c r="A11105" s="2"/>
+      <c r="B11105" s="1">
+        <v>29302.0</v>
+      </c>
+    </row>
+    <row r="11106">
+      <c r="A11106" s="2"/>
+      <c r="B11106" s="1">
+        <v>29302.0</v>
+      </c>
+    </row>
+    <row r="11107">
+      <c r="A11107" s="2"/>
+      <c r="B11107" s="1">
+        <v>69465.0</v>
+      </c>
+    </row>
+    <row r="11108">
+      <c r="A11108" s="2"/>
+      <c r="B11108" s="1">
+        <v>69465.0</v>
+      </c>
+    </row>
+    <row r="11109">
+      <c r="A11109" s="2"/>
+      <c r="B11109" s="1">
+        <v>78846.0</v>
+      </c>
+    </row>
+    <row r="11110">
+      <c r="A11110" s="2"/>
+      <c r="B11110" s="1">
+        <v>78846.0</v>
+      </c>
+    </row>
+    <row r="11111">
+      <c r="A11111" s="2"/>
+      <c r="B11111" s="1">
+        <v>95985.0</v>
+      </c>
+    </row>
+    <row r="11112">
+      <c r="A11112" s="2"/>
+      <c r="B11112" s="1">
+        <v>95985.0</v>
+      </c>
+    </row>
+    <row r="11113">
+      <c r="A11113" s="2"/>
+      <c r="B11113" s="1">
+        <v>95985.0</v>
+      </c>
+    </row>
+    <row r="11114">
+      <c r="A11114" s="2"/>
+      <c r="B11114" s="1">
+        <v>96049.0</v>
+      </c>
+    </row>
+    <row r="11115">
+      <c r="A11115" s="2"/>
+      <c r="B11115" s="1">
+        <v>96049.0</v>
+      </c>
+    </row>
+    <row r="11116">
+      <c r="A11116" s="2"/>
+      <c r="B11116" s="1">
+        <v>29629.0</v>
+      </c>
+    </row>
+    <row r="11117">
+      <c r="A11117" s="2"/>
+      <c r="B11117" s="1">
+        <v>29629.0</v>
+      </c>
+    </row>
+    <row r="11118">
+      <c r="A11118" s="2"/>
+      <c r="B11118" s="1">
+        <v>29629.0</v>
+      </c>
+    </row>
+    <row r="11119">
+      <c r="A11119" s="2"/>
+      <c r="B11119" s="1">
+        <v>29629.0</v>
+      </c>
+    </row>
+    <row r="11120">
+      <c r="A11120" s="2"/>
+      <c r="B11120" s="1">
+        <v>43840.0</v>
+      </c>
+    </row>
+    <row r="11121">
+      <c r="A11121" s="2"/>
+      <c r="B11121" s="1">
+        <v>43840.0</v>
+      </c>
+    </row>
+    <row r="11122">
+      <c r="A11122" s="3">
+        <v>45974.0</v>
+      </c>
+      <c r="B11122" s="1">
+        <v>50697.0</v>
+      </c>
+    </row>
+    <row r="11123">
+      <c r="A11123" s="2"/>
+      <c r="B11123" s="1">
+        <v>50697.0</v>
+      </c>
+    </row>
+    <row r="11124">
+      <c r="A11124" s="2"/>
+      <c r="B11124" s="1">
+        <v>37402.0</v>
+      </c>
+    </row>
+    <row r="11125">
+      <c r="A11125" s="2"/>
+      <c r="B11125" s="1">
+        <v>37402.0</v>
+      </c>
+    </row>
+    <row r="11126">
+      <c r="A11126" s="2"/>
+      <c r="B11126" s="1">
+        <v>30840.0</v>
+      </c>
+    </row>
+    <row r="11127">
+      <c r="A11127" s="2"/>
+      <c r="B11127" s="1">
+        <v>30840.0</v>
+      </c>
+    </row>
+    <row r="11128">
+      <c r="A11128" s="2"/>
+      <c r="B11128" s="1">
+        <v>95952.0</v>
+      </c>
+    </row>
+    <row r="11129">
+      <c r="A11129" s="2"/>
+      <c r="B11129" s="1">
+        <v>95952.0</v>
+      </c>
+    </row>
+    <row r="11130">
+      <c r="A11130" s="2"/>
+      <c r="B11130" s="1">
+        <v>95952.0</v>
+      </c>
+    </row>
+    <row r="11131">
+      <c r="A11131" s="2"/>
+      <c r="B11131" s="1">
+        <v>95952.0</v>
+      </c>
+    </row>
+    <row r="11132">
+      <c r="A11132" s="2"/>
+      <c r="B11132" s="1">
+        <v>71352.0</v>
+      </c>
+    </row>
+    <row r="11133">
+      <c r="A11133" s="2"/>
+      <c r="B11133" s="1">
+        <v>95952.0</v>
+      </c>
+    </row>
+    <row r="11134">
+      <c r="A11134" s="2"/>
+      <c r="B11134" s="1">
+        <v>71352.0</v>
+      </c>
+    </row>
+    <row r="11135">
+      <c r="A11135" s="2"/>
+      <c r="B11135" s="1">
+        <v>95952.0</v>
+      </c>
+    </row>
+    <row r="11136">
+      <c r="A11136" s="2"/>
+      <c r="B11136" s="1">
+        <v>71352.0</v>
+      </c>
+    </row>
+    <row r="11137">
+      <c r="A11137" s="2"/>
+      <c r="B11137" s="1">
+        <v>48292.0</v>
+      </c>
+    </row>
+    <row r="11138">
+      <c r="A11138" s="2"/>
+      <c r="B11138" s="1">
+        <v>74904.0</v>
+      </c>
+    </row>
+    <row r="11139">
+      <c r="A11139" s="2"/>
+      <c r="B11139" s="1">
+        <v>92568.0</v>
+      </c>
+    </row>
+    <row r="11140">
+      <c r="A11140" s="2"/>
+      <c r="B11140" s="1">
+        <v>92568.0</v>
+      </c>
+    </row>
+    <row r="11141">
+      <c r="A11141" s="2"/>
+      <c r="B11141" s="1">
+        <v>92568.0</v>
+      </c>
+    </row>
+    <row r="11142">
+      <c r="A11142" s="2"/>
+      <c r="B11142" s="1">
+        <v>79912.0</v>
+      </c>
+    </row>
+    <row r="11143">
+      <c r="A11143" s="2"/>
+      <c r="B11143" s="1">
+        <v>73320.0</v>
+      </c>
+    </row>
+    <row r="11144">
+      <c r="A11144" s="2"/>
+      <c r="B11144" s="1">
+        <v>86315.0</v>
+      </c>
+    </row>
+    <row r="11145">
+      <c r="A11145" s="2"/>
+      <c r="B11145" s="1">
+        <v>86315.0</v>
+      </c>
+    </row>
+    <row r="11146">
+      <c r="A11146" s="2"/>
+      <c r="B11146" s="1">
+        <v>86315.0</v>
+      </c>
+    </row>
+    <row r="11147">
+      <c r="A11147" s="2"/>
+      <c r="B11147" s="1">
+        <v>86315.0</v>
+      </c>
+    </row>
+    <row r="11148">
+      <c r="A11148" s="2"/>
+      <c r="B11148" s="1">
+        <v>86315.0</v>
+      </c>
+    </row>
+    <row r="11149">
+      <c r="A11149" s="2"/>
+      <c r="B11149" s="1">
+        <v>57818.0</v>
+      </c>
+    </row>
+    <row r="11150">
+      <c r="A11150" s="2"/>
+      <c r="B11150" s="1">
+        <v>57818.0</v>
+      </c>
+    </row>
+    <row r="11151">
+      <c r="A11151" s="2"/>
+      <c r="B11151" s="1">
+        <v>57818.0</v>
+      </c>
+    </row>
+    <row r="11152">
+      <c r="A11152" s="2"/>
+      <c r="B11152" s="1">
+        <v>57818.0</v>
+      </c>
+    </row>
+    <row r="11153">
+      <c r="A11153" s="2"/>
+      <c r="B11153" s="1">
+        <v>57818.0</v>
+      </c>
+    </row>
+    <row r="11154">
+      <c r="A11154" s="2"/>
+      <c r="B11154" s="1">
+        <v>89364.0</v>
+      </c>
+    </row>
+    <row r="11155">
+      <c r="A11155" s="2"/>
+      <c r="B11155" s="1">
+        <v>89364.0</v>
+      </c>
+    </row>
+    <row r="11156">
+      <c r="A11156" s="2"/>
+      <c r="B11156" s="1">
+        <v>89364.0</v>
+      </c>
+    </row>
+    <row r="11157">
+      <c r="A11157" s="2"/>
+      <c r="B11157" s="1">
+        <v>89364.0</v>
+      </c>
+    </row>
+    <row r="11158">
+      <c r="A11158" s="2"/>
+      <c r="B11158" s="1">
+        <v>89364.0</v>
+      </c>
+    </row>
+    <row r="11159">
+      <c r="A11159" s="2"/>
+      <c r="B11159" s="1">
+        <v>98881.0</v>
+      </c>
+    </row>
+    <row r="11160">
+      <c r="A11160" s="2"/>
+      <c r="B11160" s="1">
+        <v>98881.0</v>
+      </c>
+    </row>
+    <row r="11161">
+      <c r="A11161" s="2"/>
+      <c r="B11161" s="1">
+        <v>63485.0</v>
+      </c>
+    </row>
+    <row r="11162">
+      <c r="A11162" s="2"/>
+      <c r="B11162" s="1">
+        <v>63485.0</v>
+      </c>
+    </row>
+    <row r="11163">
+      <c r="A11163" s="2"/>
+      <c r="B11163" s="1">
+        <v>70177.0</v>
+      </c>
+    </row>
+    <row r="11164">
+      <c r="A11164" s="2"/>
+      <c r="B11164" s="1">
+        <v>70177.0</v>
+      </c>
+    </row>
+    <row r="11165">
+      <c r="A11165" s="2"/>
+      <c r="B11165" s="1">
+        <v>70177.0</v>
+      </c>
+    </row>
+    <row r="11166">
+      <c r="A11166" s="2"/>
+      <c r="B11166" s="1">
+        <v>31059.0</v>
+      </c>
+    </row>
+    <row r="11167">
+      <c r="A11167" s="2"/>
+      <c r="B11167" s="1">
+        <v>31059.0</v>
+      </c>
+    </row>
+    <row r="11168">
+      <c r="A11168" s="2"/>
+      <c r="B11168" s="1">
+        <v>31059.0</v>
+      </c>
+    </row>
+    <row r="11169">
+      <c r="A11169" s="2"/>
+      <c r="B11169" s="1">
+        <v>31059.0</v>
+      </c>
+    </row>
+    <row r="11170">
+      <c r="A11170" s="2"/>
+      <c r="B11170" s="1">
+        <v>88444.0</v>
+      </c>
+    </row>
+    <row r="11171">
+      <c r="A11171" s="2"/>
+      <c r="B11171" s="1">
+        <v>88444.0</v>
+      </c>
+    </row>
+    <row r="11172">
+      <c r="A11172" s="2"/>
+      <c r="B11172" s="1">
+        <v>88444.0</v>
+      </c>
+    </row>
+    <row r="11173">
+      <c r="A11173" s="2"/>
+      <c r="B11173" s="1">
+        <v>21229.0</v>
+      </c>
+    </row>
+    <row r="11174">
+      <c r="A11174" s="2"/>
+      <c r="B11174" s="1">
+        <v>21229.0</v>
+      </c>
+    </row>
+    <row r="11175">
+      <c r="A11175" s="2"/>
+      <c r="B11175" s="1">
+        <v>21229.0</v>
+      </c>
+    </row>
+    <row r="11176">
+      <c r="A11176" s="2"/>
+      <c r="B11176" s="1">
+        <v>21229.0</v>
+      </c>
+    </row>
+    <row r="11177">
+      <c r="A11177" s="2"/>
+      <c r="B11177" s="1">
+        <v>87257.0</v>
+      </c>
+    </row>
+    <row r="11178">
+      <c r="A11178" s="2"/>
+      <c r="B11178" s="1">
+        <v>87257.0</v>
+      </c>
+    </row>
+    <row r="11179">
+      <c r="A11179" s="2"/>
+      <c r="B11179" s="1">
+        <v>87257.0</v>
+      </c>
+    </row>
+    <row r="11180">
+      <c r="A11180" s="2"/>
+      <c r="B11180" s="1">
+        <v>44985.0</v>
+      </c>
+    </row>
+    <row r="11181">
+      <c r="A11181" s="2"/>
+      <c r="B11181" s="1">
+        <v>44985.0</v>
+      </c>
+    </row>
+    <row r="11182">
+      <c r="A11182" s="2"/>
+      <c r="B11182" s="1">
+        <v>44985.0</v>
+      </c>
+    </row>
+    <row r="11183">
+      <c r="A11183" s="2"/>
+      <c r="B11183" s="1">
+        <v>44985.0</v>
+      </c>
+    </row>
+    <row r="11184">
+      <c r="A11184" s="2"/>
+      <c r="B11184" s="1">
+        <v>44985.0</v>
+      </c>
+    </row>
+    <row r="11185">
+      <c r="A11185" s="2"/>
+      <c r="B11185" s="1">
+        <v>60131.0</v>
+      </c>
+    </row>
+    <row r="11186">
+      <c r="A11186" s="2"/>
+      <c r="B11186" s="1">
+        <v>60131.0</v>
+      </c>
+    </row>
+    <row r="11187">
+      <c r="A11187" s="2"/>
+      <c r="B11187" s="1">
+        <v>60131.0</v>
+      </c>
+    </row>
+    <row r="11188">
+      <c r="A11188" s="2"/>
+      <c r="B11188" s="1">
+        <v>60131.0</v>
+      </c>
+    </row>
+    <row r="11189">
+      <c r="A11189" s="2"/>
+      <c r="B11189" s="1">
+        <v>60131.0</v>
+      </c>
+    </row>
+    <row r="11190">
+      <c r="A11190" s="2"/>
+      <c r="B11190" s="1">
+        <v>60131.0</v>
+      </c>
+    </row>
+    <row r="11191">
+      <c r="A11191" s="2"/>
+      <c r="B11191" s="1">
+        <v>60131.0</v>
+      </c>
+    </row>
+    <row r="11192">
+      <c r="A11192" s="2"/>
+      <c r="B11192" s="1">
+        <v>99692.0</v>
+      </c>
+    </row>
+    <row r="11193">
+      <c r="A11193" s="2"/>
+      <c r="B11193" s="1">
+        <v>99692.0</v>
+      </c>
+    </row>
+    <row r="11194">
+      <c r="A11194" s="2"/>
+      <c r="B11194" s="1">
+        <v>99692.0</v>
+      </c>
+    </row>
+    <row r="11195">
+      <c r="A11195" s="2"/>
+      <c r="B11195" s="1">
+        <v>99692.0</v>
+      </c>
+    </row>
+    <row r="11196">
+      <c r="A11196" s="2"/>
+      <c r="B11196" s="1">
+        <v>26094.0</v>
+      </c>
+    </row>
+    <row r="11197">
+      <c r="A11197" s="2"/>
+      <c r="B11197" s="1">
+        <v>26094.0</v>
+      </c>
+    </row>
+    <row r="11198">
+      <c r="A11198" s="2"/>
+      <c r="B11198" s="1">
+        <v>26094.0</v>
+      </c>
+    </row>
+    <row r="11199">
+      <c r="A11199" s="2"/>
+      <c r="B11199" s="1">
+        <v>26094.0</v>
+      </c>
+    </row>
+    <row r="11200">
+      <c r="A11200" s="2"/>
+      <c r="B11200" s="1">
+        <v>26094.0</v>
+      </c>
+    </row>
+    <row r="11201">
+      <c r="A11201" s="2"/>
+      <c r="B11201" s="1">
+        <v>26530.0</v>
+      </c>
+    </row>
+    <row r="11202">
+      <c r="A11202" s="2"/>
+      <c r="B11202" s="1">
+        <v>26530.0</v>
+      </c>
+    </row>
+    <row r="11203">
+      <c r="A11203" s="2"/>
+      <c r="B11203" s="1">
+        <v>60358.0</v>
+      </c>
+    </row>
+    <row r="11204">
+      <c r="A11204" s="2"/>
+      <c r="B11204" s="1">
+        <v>60358.0</v>
+      </c>
+    </row>
+    <row r="11205">
+      <c r="A11205" s="2"/>
+      <c r="B11205" s="1">
+        <v>60358.0</v>
+      </c>
+    </row>
+    <row r="11206">
+      <c r="A11206" s="2"/>
+      <c r="B11206" s="1">
+        <v>60358.0</v>
+      </c>
+    </row>
+    <row r="11207">
+      <c r="A11207" s="2"/>
+      <c r="B11207" s="1">
+        <v>95856.0</v>
+      </c>
+    </row>
+    <row r="11208">
+      <c r="A11208" s="2"/>
+      <c r="B11208" s="1">
+        <v>95856.0</v>
+      </c>
+    </row>
+    <row r="11209">
+      <c r="A11209" s="2"/>
+      <c r="B11209" s="1">
+        <v>95856.0</v>
+      </c>
+    </row>
+    <row r="11210">
+      <c r="A11210" s="2"/>
+      <c r="B11210" s="1">
+        <v>95856.0</v>
+      </c>
+    </row>
+    <row r="11211">
+      <c r="A11211" s="2"/>
+      <c r="B11211" s="1">
+        <v>95856.0</v>
+      </c>
+    </row>
+    <row r="11212">
+      <c r="A11212" s="2"/>
+      <c r="B11212" s="1">
+        <v>95856.0</v>
+      </c>
+    </row>
+    <row r="11213">
+      <c r="A11213" s="2"/>
+      <c r="B11213" s="1">
+        <v>95856.0</v>
+      </c>
+    </row>
+    <row r="11214">
+      <c r="A11214" s="2"/>
+      <c r="B11214" s="1">
+        <v>18093.0</v>
+      </c>
+    </row>
+    <row r="11215">
+      <c r="A11215" s="2"/>
+      <c r="B11215" s="1">
+        <v>10332.0</v>
+      </c>
+    </row>
+    <row r="11216">
+      <c r="A11216" s="2"/>
+      <c r="B11216" s="1">
+        <v>10332.0</v>
+      </c>
+    </row>
+    <row r="11217">
+      <c r="A11217" s="2"/>
+      <c r="B11217" s="1">
+        <v>10332.0</v>
+      </c>
+    </row>
+    <row r="11218">
+      <c r="A11218" s="2"/>
+      <c r="B11218" s="1">
+        <v>10332.0</v>
+      </c>
+    </row>
+    <row r="11219">
+      <c r="A11219" s="2"/>
+      <c r="B11219" s="1">
+        <v>83340.0</v>
+      </c>
+    </row>
+    <row r="11220">
+      <c r="A11220" s="2"/>
+      <c r="B11220" s="1">
+        <v>83340.0</v>
+      </c>
+    </row>
+    <row r="11221">
+      <c r="A11221" s="2"/>
+      <c r="B11221" s="1">
+        <v>83340.0</v>
+      </c>
+    </row>
+    <row r="11222">
+      <c r="A11222" s="2"/>
+      <c r="B11222" s="1">
+        <v>37561.0</v>
+      </c>
+    </row>
+    <row r="11223">
+      <c r="A11223" s="2"/>
+      <c r="B11223" s="1">
+        <v>37561.0</v>
+      </c>
+    </row>
+    <row r="11224">
+      <c r="A11224" s="2"/>
+      <c r="B11224" s="1">
+        <v>37561.0</v>
+      </c>
+    </row>
+    <row r="11225">
+      <c r="A11225" s="2"/>
+      <c r="B11225" s="1">
+        <v>22407.0</v>
+      </c>
+    </row>
+    <row r="11226">
+      <c r="A11226" s="2"/>
+      <c r="B11226" s="1">
+        <v>22407.0</v>
+      </c>
+    </row>
+    <row r="11227">
+      <c r="A11227" s="2"/>
+      <c r="B11227" s="1">
+        <v>54085.0</v>
+      </c>
+    </row>
+    <row r="11228">
+      <c r="A11228" s="2"/>
+      <c r="B11228" s="1">
+        <v>54085.0</v>
+      </c>
+    </row>
+    <row r="11229">
+      <c r="A11229" s="2"/>
+      <c r="B11229" s="1">
+        <v>93497.0</v>
+      </c>
+    </row>
+    <row r="11230">
+      <c r="A11230" s="2"/>
+      <c r="B11230" s="1">
+        <v>93497.0</v>
+      </c>
+    </row>
+    <row r="11231">
+      <c r="A11231" s="2"/>
+      <c r="B11231" s="1">
+        <v>79286.0</v>
+      </c>
+    </row>
+    <row r="11232">
+      <c r="A11232" s="3">
+        <v>45975.0</v>
+      </c>
+      <c r="B11232" s="1">
+        <v>65584.0</v>
+      </c>
+    </row>
+    <row r="11233">
+      <c r="A11233" s="2"/>
+      <c r="B11233" s="1">
+        <v>68800.0</v>
+      </c>
+    </row>
+    <row r="11234">
+      <c r="A11234" s="2"/>
+      <c r="B11234" s="1">
+        <v>68800.0</v>
+      </c>
+    </row>
+    <row r="11235">
+      <c r="A11235" s="2"/>
+      <c r="B11235" s="1">
+        <v>68800.0</v>
+      </c>
+    </row>
+    <row r="11236">
+      <c r="A11236" s="2"/>
+      <c r="B11236" s="1">
+        <v>81878.0</v>
+      </c>
+    </row>
+    <row r="11237">
+      <c r="A11237" s="2"/>
+      <c r="B11237" s="1">
+        <v>81878.0</v>
+      </c>
+    </row>
+    <row r="11238">
+      <c r="A11238" s="2"/>
+      <c r="B11238" s="1">
+        <v>81878.0</v>
+      </c>
+    </row>
+    <row r="11239">
+      <c r="A11239" s="2"/>
+      <c r="B11239" s="1">
+        <v>81878.0</v>
+      </c>
+    </row>
+    <row r="11240">
+      <c r="A11240" s="2"/>
+      <c r="B11240" s="1">
+        <v>81878.0</v>
+      </c>
+    </row>
+    <row r="11241">
+      <c r="A11241" s="2"/>
+      <c r="B11241" s="1">
+        <v>81878.0</v>
+      </c>
+    </row>
+    <row r="11242">
+      <c r="A11242" s="2"/>
+      <c r="B11242" s="1">
+        <v>78771.0</v>
+      </c>
+    </row>
+    <row r="11243">
+      <c r="A11243" s="2"/>
+      <c r="B11243" s="1">
+        <v>78771.0</v>
+      </c>
+    </row>
+    <row r="11244">
+      <c r="A11244" s="2"/>
+      <c r="B11244" s="1">
+        <v>62566.0</v>
+      </c>
+    </row>
+    <row r="11245">
+      <c r="A11245" s="2"/>
+      <c r="B11245" s="1">
+        <v>62566.0</v>
+      </c>
+    </row>
+    <row r="11246">
+      <c r="A11246" s="2"/>
+      <c r="B11246" s="1">
+        <v>13756.0</v>
+      </c>
+    </row>
+    <row r="11247">
+      <c r="A11247" s="2"/>
+      <c r="B11247" s="1">
+        <v>13756.0</v>
+      </c>
+    </row>
+    <row r="11248">
+      <c r="A11248" s="2"/>
+      <c r="B11248" s="1">
+        <v>13756.0</v>
+      </c>
+    </row>
+    <row r="11249">
+      <c r="A11249" s="2"/>
+      <c r="B11249" s="1">
+        <v>74909.0</v>
+      </c>
+    </row>
+    <row r="11250">
+      <c r="A11250" s="2"/>
+      <c r="B11250" s="1">
+        <v>13756.0</v>
+      </c>
+    </row>
+    <row r="11251">
+      <c r="A11251" s="2"/>
+      <c r="B11251" s="1">
+        <v>74909.0</v>
+      </c>
+    </row>
+    <row r="11252">
+      <c r="A11252" s="2"/>
+      <c r="B11252" s="1">
+        <v>13756.0</v>
+      </c>
+    </row>
+    <row r="11253">
+      <c r="A11253" s="2"/>
+      <c r="B11253" s="1">
+        <v>74909.0</v>
+      </c>
+    </row>
+    <row r="11254">
+      <c r="A11254" s="2"/>
+      <c r="B11254" s="1">
+        <v>36521.0</v>
+      </c>
+    </row>
+    <row r="11255">
+      <c r="A11255" s="2"/>
+      <c r="B11255" s="1">
+        <v>36521.0</v>
+      </c>
+    </row>
+    <row r="11256">
+      <c r="A11256" s="2"/>
+      <c r="B11256" s="1">
+        <v>36521.0</v>
+      </c>
+    </row>
+    <row r="11257">
+      <c r="A11257" s="2"/>
+      <c r="B11257" s="1">
+        <v>55325.0</v>
+      </c>
+    </row>
+    <row r="11258">
+      <c r="A11258" s="2"/>
+      <c r="B11258" s="1">
+        <v>55325.0</v>
+      </c>
+    </row>
+    <row r="11259">
+      <c r="A11259" s="2"/>
+      <c r="B11259" s="1">
+        <v>55325.0</v>
+      </c>
+    </row>
+    <row r="11260">
+      <c r="A11260" s="2"/>
+      <c r="B11260" s="1">
+        <v>55325.0</v>
+      </c>
+    </row>
+    <row r="11261">
+      <c r="A11261" s="2"/>
+      <c r="B11261" s="1">
+        <v>55325.0</v>
+      </c>
+    </row>
+    <row r="11262">
+      <c r="A11262" s="2"/>
+      <c r="B11262" s="1">
+        <v>55325.0</v>
+      </c>
+    </row>
+    <row r="11263">
+      <c r="A11263" s="2"/>
+      <c r="B11263" s="1">
+        <v>55325.0</v>
+      </c>
+    </row>
+    <row r="11264">
+      <c r="A11264" s="2"/>
+      <c r="B11264" s="1">
+        <v>55325.0</v>
+      </c>
+    </row>
+    <row r="11265">
+      <c r="A11265" s="2"/>
+      <c r="B11265" s="1">
+        <v>36521.0</v>
+      </c>
+    </row>
+    <row r="11266">
+      <c r="A11266" s="2"/>
+      <c r="B11266" s="1">
+        <v>36521.0</v>
+      </c>
+    </row>
+    <row r="11267">
+      <c r="A11267" s="2"/>
+      <c r="B11267" s="1">
+        <v>38463.0</v>
+      </c>
+    </row>
+    <row r="11268">
+      <c r="A11268" s="2"/>
+      <c r="B11268" s="1">
+        <v>38463.0</v>
+      </c>
+    </row>
+    <row r="11269">
+      <c r="A11269" s="2"/>
+      <c r="B11269" s="1">
+        <v>90859.0</v>
+      </c>
+    </row>
+    <row r="11270">
+      <c r="A11270" s="2"/>
+      <c r="B11270" s="1">
+        <v>90859.0</v>
+      </c>
+    </row>
+    <row r="11271">
+      <c r="A11271" s="2"/>
+      <c r="B11271" s="1">
+        <v>26136.0</v>
+      </c>
+    </row>
+    <row r="11272">
+      <c r="A11272" s="2"/>
+      <c r="B11272" s="1">
+        <v>26136.0</v>
+      </c>
+    </row>
+    <row r="11273">
+      <c r="A11273" s="2"/>
+      <c r="B11273" s="1">
+        <v>26136.0</v>
+      </c>
+    </row>
+    <row r="11274">
+      <c r="A11274" s="2"/>
+      <c r="B11274" s="1">
+        <v>26136.0</v>
+      </c>
+    </row>
+    <row r="11275">
+      <c r="A11275" s="2"/>
+      <c r="B11275" s="1">
+        <v>26136.0</v>
+      </c>
+    </row>
+    <row r="11276">
+      <c r="A11276" s="2"/>
+      <c r="B11276" s="1">
+        <v>26136.0</v>
+      </c>
+    </row>
+    <row r="11277">
+      <c r="A11277" s="2"/>
+      <c r="B11277" s="1">
+        <v>26136.0</v>
+      </c>
+    </row>
+    <row r="11278">
+      <c r="A11278" s="2"/>
+      <c r="B11278" s="1">
+        <v>41728.0</v>
+      </c>
+    </row>
+    <row r="11279">
+      <c r="A11279" s="2"/>
+      <c r="B11279" s="1">
+        <v>41728.0</v>
+      </c>
+    </row>
+    <row r="11280">
+      <c r="A11280" s="2"/>
+      <c r="B11280" s="1">
+        <v>41728.0</v>
+      </c>
+    </row>
+    <row r="11281">
+      <c r="A11281" s="2"/>
+      <c r="B11281" s="1">
+        <v>41728.0</v>
+      </c>
+    </row>
+    <row r="11282">
+      <c r="A11282" s="2"/>
+      <c r="B11282" s="1">
+        <v>41728.0</v>
+      </c>
+    </row>
+    <row r="11283">
+      <c r="A11283" s="2"/>
+      <c r="B11283" s="1">
+        <v>30313.0</v>
+      </c>
+    </row>
+    <row r="11284">
+      <c r="A11284" s="2"/>
+      <c r="B11284" s="1">
+        <v>30313.0</v>
+      </c>
+    </row>
+    <row r="11285">
+      <c r="A11285" s="2"/>
+      <c r="B11285" s="1">
+        <v>10577.0</v>
+      </c>
+    </row>
+    <row r="11286">
+      <c r="A11286" s="2"/>
+      <c r="B11286" s="1">
+        <v>10577.0</v>
+      </c>
+    </row>
+    <row r="11287">
+      <c r="A11287" s="2"/>
+      <c r="B11287" s="1">
+        <v>10577.0</v>
+      </c>
+    </row>
+    <row r="11288">
+      <c r="A11288" s="2"/>
+      <c r="B11288" s="1">
+        <v>10577.0</v>
+      </c>
+    </row>
+    <row r="11289">
+      <c r="A11289" s="2"/>
+      <c r="B11289" s="1">
+        <v>51744.0</v>
+      </c>
+    </row>
+    <row r="11290">
+      <c r="A11290" s="2"/>
+      <c r="B11290" s="1">
+        <v>51744.0</v>
+      </c>
+    </row>
+    <row r="11291">
+      <c r="A11291" s="2"/>
+      <c r="B11291" s="1">
+        <v>51744.0</v>
+      </c>
+    </row>
+    <row r="11292">
+      <c r="A11292" s="2"/>
+      <c r="B11292" s="1">
+        <v>51744.0</v>
+      </c>
+    </row>
+    <row r="11293">
+      <c r="A11293" s="2"/>
+      <c r="B11293" s="1">
+        <v>59806.0</v>
+      </c>
+    </row>
+    <row r="11294">
+      <c r="A11294" s="2"/>
+      <c r="B11294" s="1">
+        <v>59806.0</v>
+      </c>
+    </row>
+    <row r="11295">
+      <c r="A11295" s="2"/>
+      <c r="B11295" s="1">
+        <v>59806.0</v>
+      </c>
+    </row>
+    <row r="11296">
+      <c r="A11296" s="2"/>
+      <c r="B11296" s="1">
+        <v>59255.0</v>
+      </c>
+    </row>
+    <row r="11297">
+      <c r="A11297" s="2"/>
+      <c r="B11297" s="1">
+        <v>59255.0</v>
+      </c>
+    </row>
+    <row r="11298">
+      <c r="A11298" s="2"/>
+      <c r="B11298" s="1">
+        <v>59255.0</v>
+      </c>
+    </row>
+    <row r="11299">
+      <c r="A11299" s="2"/>
+      <c r="B11299" s="1">
+        <v>99264.0</v>
+      </c>
+    </row>
+    <row r="11300">
+      <c r="A11300" s="2"/>
+      <c r="B11300" s="1"/>
+    </row>
+    <row r="11301">
+      <c r="A11301" s="2"/>
+      <c r="B11301" s="1"/>
+    </row>
+    <row r="11302">
+      <c r="A11302" s="2"/>
+      <c r="B11302" s="1"/>
+    </row>
+    <row r="11303">
+      <c r="A11303" s="2"/>
+      <c r="B11303" s="1"/>
+    </row>
+    <row r="11304">
+      <c r="A11304" s="2"/>
+      <c r="B11304" s="1"/>
+    </row>
+    <row r="11305">
+      <c r="A11305" s="2"/>
+      <c r="B11305" s="1"/>
+    </row>
+    <row r="11306">
+      <c r="A11306" s="2"/>
+      <c r="B11306" s="1"/>
+    </row>
+    <row r="11307">
+      <c r="A11307" s="2"/>
+      <c r="B11307" s="1"/>
+    </row>
+    <row r="11308">
+      <c r="A11308" s="2"/>
+      <c r="B11308" s="1"/>
+    </row>
+    <row r="11309">
+      <c r="A11309" s="2"/>
+      <c r="B11309" s="1"/>
+    </row>
+    <row r="11310">
+      <c r="A11310" s="2"/>
+      <c r="B11310" s="1"/>
+    </row>
+    <row r="11311">
+      <c r="A11311" s="2"/>
+      <c r="B11311" s="1"/>
+    </row>
+    <row r="11312">
+      <c r="A11312" s="2"/>
+      <c r="B11312" s="1"/>
+    </row>
+    <row r="11313">
+      <c r="A11313" s="2"/>
+      <c r="B11313" s="1"/>
+    </row>
+    <row r="11314">
+      <c r="A11314" s="2"/>
+      <c r="B11314" s="1"/>
+    </row>
+    <row r="11315">
+      <c r="A11315" s="2"/>
+      <c r="B11315" s="1"/>
+    </row>
+    <row r="11316">
+      <c r="A11316" s="2"/>
+      <c r="B11316" s="1"/>
+    </row>
+    <row r="11317">
+      <c r="A11317" s="2"/>
+      <c r="B11317" s="1"/>
+    </row>
+    <row r="11318">
+      <c r="A11318" s="2"/>
+      <c r="B11318" s="1"/>
+    </row>
+    <row r="11319">
+      <c r="A11319" s="2"/>
+      <c r="B11319" s="1"/>
+    </row>
+    <row r="11320">
+      <c r="A11320" s="2"/>
+      <c r="B11320" s="1"/>
+    </row>
+    <row r="11321">
+      <c r="A11321" s="2"/>
+      <c r="B11321" s="1"/>
+    </row>
+    <row r="11322">
+      <c r="A11322" s="2"/>
+      <c r="B11322" s="1"/>
+    </row>
+    <row r="11323">
+      <c r="A11323" s="2"/>
+      <c r="B11323" s="1"/>
+    </row>
+    <row r="11324">
+      <c r="A11324" s="2"/>
+      <c r="B11324" s="1"/>
+    </row>
+    <row r="11325">
+      <c r="A11325" s="2"/>
+      <c r="B11325" s="1"/>
+    </row>
+    <row r="11326">
+      <c r="A11326" s="2"/>
+      <c r="B11326" s="1"/>
+    </row>
+    <row r="11327">
+      <c r="A11327" s="2"/>
+      <c r="B11327" s="1"/>
+    </row>
+    <row r="11328">
+      <c r="A11328" s="2"/>
+      <c r="B11328" s="1"/>
+    </row>
+    <row r="11329">
+      <c r="A11329" s="2"/>
+      <c r="B11329" s="1"/>
+    </row>
+    <row r="11330">
+      <c r="A11330" s="2"/>
+      <c r="B11330" s="1"/>
+    </row>
+    <row r="11331">
+      <c r="A11331" s="2"/>
+      <c r="B11331" s="1"/>
+    </row>
+    <row r="11332">
+      <c r="A11332" s="2"/>
+      <c r="B11332" s="1"/>
+    </row>
+    <row r="11333">
+      <c r="A11333" s="2"/>
+      <c r="B11333" s="1"/>
+    </row>
+    <row r="11334">
+      <c r="A11334" s="2"/>
+      <c r="B11334" s="1"/>
+    </row>
+    <row r="11335">
+      <c r="A11335" s="2"/>
+      <c r="B11335" s="1"/>
+    </row>
+    <row r="11336">
+      <c r="A11336" s="2"/>
+      <c r="B11336" s="1"/>
+    </row>
+    <row r="11337">
+      <c r="A11337" s="2"/>
+      <c r="B11337" s="1"/>
+    </row>
+    <row r="11338">
+      <c r="A11338" s="2"/>
+      <c r="B11338" s="1"/>
+    </row>
+    <row r="11339">
+      <c r="A11339" s="2"/>
+      <c r="B11339" s="1"/>
+    </row>
+    <row r="11340">
+      <c r="A11340" s="2"/>
+      <c r="B11340" s="1"/>
+    </row>
+    <row r="11341">
+      <c r="A11341" s="2"/>
+      <c r="B11341" s="1"/>
+    </row>
+    <row r="11342">
+      <c r="A11342" s="2"/>
+      <c r="B11342" s="1"/>
+    </row>
+    <row r="11343">
+      <c r="A11343" s="2"/>
+      <c r="B11343" s="1"/>
+    </row>
+    <row r="11344">
+      <c r="A11344" s="2"/>
+      <c r="B11344" s="1"/>
+    </row>
+    <row r="11345">
+      <c r="A11345" s="2"/>
+      <c r="B11345" s="1"/>
+    </row>
+    <row r="11346">
+      <c r="A11346" s="2"/>
+      <c r="B11346" s="1"/>
+    </row>
+    <row r="11347">
+      <c r="A11347" s="2"/>
+      <c r="B11347" s="1"/>
+    </row>
+    <row r="11348">
+      <c r="A11348" s="2"/>
+      <c r="B11348" s="1"/>
+    </row>
+    <row r="11349">
+      <c r="A11349" s="2"/>
+      <c r="B11349" s="1"/>
+    </row>
+    <row r="11350">
+      <c r="A11350" s="2"/>
+      <c r="B11350" s="1"/>
+    </row>
+    <row r="11351">
+      <c r="A11351" s="2"/>
+      <c r="B11351" s="1"/>
+    </row>
+    <row r="11352">
+      <c r="A11352" s="2"/>
+      <c r="B11352" s="1"/>
+    </row>
+    <row r="11353">
+      <c r="A11353" s="2"/>
+      <c r="B11353" s="1"/>
+    </row>
+    <row r="11354">
+      <c r="A11354" s="2"/>
+      <c r="B11354" s="1"/>
+    </row>
+    <row r="11355">
+      <c r="A11355" s="2"/>
+      <c r="B11355" s="1"/>
+    </row>
+    <row r="11356">
+      <c r="A11356" s="2"/>
+      <c r="B11356" s="1"/>
+    </row>
+    <row r="11357">
+      <c r="A11357" s="2"/>
+      <c r="B11357" s="1"/>
+    </row>
+    <row r="11358">
+      <c r="A11358" s="2"/>
+      <c r="B11358" s="1"/>
+    </row>
+    <row r="11359">
+      <c r="A11359" s="2"/>
+      <c r="B11359" s="1"/>
+    </row>
+    <row r="11360">
+      <c r="A11360" s="2"/>
+      <c r="B11360" s="1"/>
+    </row>
+    <row r="11361">
+      <c r="A11361" s="2"/>
+      <c r="B11361" s="1"/>
+    </row>
+    <row r="11362">
+      <c r="A11362" s="2"/>
+      <c r="B11362" s="1"/>
+    </row>
+    <row r="11363">
+      <c r="A11363" s="2"/>
+      <c r="B11363" s="1"/>
+    </row>
+    <row r="11364">
+      <c r="A11364" s="2"/>
+      <c r="B11364" s="1"/>
+    </row>
+    <row r="11365">
+      <c r="A11365" s="2"/>
+      <c r="B11365" s="1"/>
+    </row>
+    <row r="11366">
+      <c r="A11366" s="2"/>
+      <c r="B11366" s="1"/>
+    </row>
+    <row r="11367">
+      <c r="A11367" s="2"/>
+      <c r="B11367" s="1"/>
+    </row>
+    <row r="11368">
+      <c r="A11368" s="2"/>
+      <c r="B11368" s="1"/>
+    </row>
+    <row r="11369">
+      <c r="A11369" s="2"/>
+      <c r="B11369" s="1"/>
+    </row>
+    <row r="11370">
+      <c r="A11370" s="2"/>
+      <c r="B11370" s="1"/>
+    </row>
+    <row r="11371">
+      <c r="A11371" s="2"/>
+      <c r="B11371" s="1"/>
+    </row>
+    <row r="11372">
+      <c r="A11372" s="2"/>
+      <c r="B11372" s="1"/>
+    </row>
+    <row r="11373">
+      <c r="A11373" s="2"/>
+      <c r="B11373" s="1"/>
+    </row>
+    <row r="11374">
+      <c r="A11374" s="2"/>
+      <c r="B11374" s="1"/>
+    </row>
+    <row r="11375">
+      <c r="A11375" s="2"/>
+      <c r="B11375" s="1"/>
+    </row>
+    <row r="11376">
+      <c r="A11376" s="2"/>
+      <c r="B11376" s="1"/>
+    </row>
+    <row r="11377">
+      <c r="A11377" s="2"/>
+      <c r="B11377" s="1"/>
+    </row>
+    <row r="11378">
+      <c r="A11378" s="2"/>
+      <c r="B11378" s="1"/>
+    </row>
+    <row r="11379">
+      <c r="A11379" s="2"/>
+      <c r="B11379" s="1"/>
+    </row>
+    <row r="11380">
+      <c r="A11380" s="2"/>
+      <c r="B11380" s="1"/>
+    </row>
+    <row r="11381">
+      <c r="A11381" s="2"/>
+      <c r="B11381" s="1"/>
+    </row>
+    <row r="11382">
+      <c r="A11382" s="2"/>
+      <c r="B11382" s="1"/>
+    </row>
+    <row r="11383">
+      <c r="A11383" s="2"/>
+      <c r="B11383" s="1"/>
+    </row>
+    <row r="11384">
+      <c r="A11384" s="2"/>
+      <c r="B11384" s="1"/>
+    </row>
+    <row r="11385">
+      <c r="A11385" s="2"/>
+      <c r="B11385" s="1"/>
+    </row>
+    <row r="11386">
+      <c r="A11386" s="2"/>
+      <c r="B11386" s="1"/>
+    </row>
+    <row r="11387">
+      <c r="A11387" s="2"/>
+      <c r="B11387" s="1"/>
+    </row>
+    <row r="11388">
+      <c r="A11388" s="2"/>
+      <c r="B11388" s="1"/>
+    </row>
+    <row r="11389">
+      <c r="A11389" s="2"/>
+      <c r="B11389" s="1"/>
+    </row>
+    <row r="11390">
+      <c r="A11390" s="2"/>
+      <c r="B11390" s="1"/>
+    </row>
+    <row r="11391">
+      <c r="A11391" s="2"/>
+      <c r="B11391" s="1"/>
+    </row>
+    <row r="11392">
+      <c r="A11392" s="2"/>
+      <c r="B11392" s="1"/>
+    </row>
+    <row r="11393">
+      <c r="A11393" s="2"/>
+      <c r="B11393" s="1"/>
+    </row>
+    <row r="11394">
+      <c r="A11394" s="2"/>
+      <c r="B11394" s="1"/>
+    </row>
+    <row r="11395">
+      <c r="A11395" s="2"/>
+      <c r="B11395" s="1"/>
+    </row>
+    <row r="11396">
+      <c r="A11396" s="2"/>
+      <c r="B11396" s="1"/>
+    </row>
+    <row r="11397">
+      <c r="A11397" s="2"/>
+      <c r="B11397" s="1"/>
+    </row>
+    <row r="11398">
+      <c r="A11398" s="2"/>
+      <c r="B11398" s="1"/>
+    </row>
+    <row r="11399">
+      <c r="A11399" s="2"/>
+      <c r="B11399" s="1"/>
+    </row>
+    <row r="11400">
+      <c r="A11400" s="2"/>
+      <c r="B11400" s="1"/>
+    </row>
+    <row r="11401">
+      <c r="A11401" s="2"/>
+      <c r="B11401" s="1"/>
+    </row>
+    <row r="11402">
+      <c r="A11402" s="2"/>
+      <c r="B11402" s="1"/>
+    </row>
+    <row r="11403">
+      <c r="A11403" s="2"/>
+      <c r="B11403" s="1"/>
+    </row>
+    <row r="11404">
+      <c r="A11404" s="2"/>
+      <c r="B11404" s="1"/>
+    </row>
+    <row r="11405">
+      <c r="A11405" s="2"/>
+      <c r="B11405" s="1"/>
+    </row>
+    <row r="11406">
+      <c r="A11406" s="2"/>
+      <c r="B11406" s="1"/>
+    </row>
+    <row r="11407">
+      <c r="A11407" s="2"/>
+      <c r="B11407" s="1"/>
+    </row>
+    <row r="11408">
+      <c r="A11408" s="2"/>
+      <c r="B11408" s="1"/>
+    </row>
+    <row r="11409">
+      <c r="A11409" s="2"/>
+      <c r="B11409" s="1"/>
+    </row>
+    <row r="11410">
+      <c r="A11410" s="2"/>
+      <c r="B11410" s="1"/>
+    </row>
+    <row r="11411">
+      <c r="A11411" s="2"/>
+      <c r="B11411" s="1"/>
+    </row>
+    <row r="11412">
+      <c r="A11412" s="2"/>
+      <c r="B11412" s="1"/>
+    </row>
+    <row r="11413">
+      <c r="A11413" s="2"/>
+      <c r="B11413" s="1"/>
+    </row>
+    <row r="11414">
+      <c r="A11414" s="2"/>
+      <c r="B11414" s="1"/>
+    </row>
+    <row r="11415">
+      <c r="A11415" s="2"/>
+      <c r="B11415" s="1"/>
+    </row>
+    <row r="11416">
+      <c r="A11416" s="2"/>
+      <c r="B11416" s="1"/>
+    </row>
+    <row r="11417">
+      <c r="A11417" s="2"/>
+      <c r="B11417" s="1"/>
+    </row>
+    <row r="11418">
+      <c r="A11418" s="2"/>
+      <c r="B11418" s="1"/>
+    </row>
+    <row r="11419">
+      <c r="A11419" s="2"/>
+      <c r="B11419" s="1"/>
+    </row>
+    <row r="11420">
+      <c r="A11420" s="2"/>
+      <c r="B11420" s="1"/>
+    </row>
+    <row r="11421">
+      <c r="A11421" s="2"/>
+      <c r="B11421" s="1"/>
+    </row>
+    <row r="11422">
+      <c r="A11422" s="2"/>
+      <c r="B11422" s="1"/>
+    </row>
+    <row r="11423">
+      <c r="A11423" s="2"/>
+      <c r="B11423" s="1"/>
+    </row>
+    <row r="11424">
+      <c r="A11424" s="2"/>
+      <c r="B11424" s="1"/>
+    </row>
+    <row r="11425">
+      <c r="A11425" s="2"/>
+      <c r="B11425" s="1"/>
+    </row>
+    <row r="11426">
+      <c r="A11426" s="2"/>
+      <c r="B11426" s="1"/>
+    </row>
+    <row r="11427">
+      <c r="A11427" s="2"/>
+      <c r="B11427" s="1"/>
+    </row>
+    <row r="11428">
+      <c r="A11428" s="2"/>
+      <c r="B11428" s="1"/>
+    </row>
+    <row r="11429">
+      <c r="A11429" s="2"/>
+      <c r="B11429" s="1"/>
+    </row>
+    <row r="11430">
+      <c r="A11430" s="2"/>
+      <c r="B11430" s="1"/>
+    </row>
+    <row r="11431">
+      <c r="A11431" s="2"/>
+      <c r="B11431" s="1"/>
+    </row>
+    <row r="11432">
+      <c r="A11432" s="2"/>
+      <c r="B11432" s="1"/>
+    </row>
+    <row r="11433">
+      <c r="A11433" s="2"/>
+      <c r="B11433" s="1"/>
+    </row>
+    <row r="11434">
+      <c r="A11434" s="2"/>
+      <c r="B11434" s="1"/>
+    </row>
+    <row r="11435">
+      <c r="A11435" s="2"/>
+      <c r="B11435" s="1"/>
+    </row>
+    <row r="11436">
+      <c r="A11436" s="2"/>
+      <c r="B11436" s="1"/>
+    </row>
+    <row r="11437">
+      <c r="A11437" s="2"/>
+      <c r="B11437" s="1"/>
+    </row>
+    <row r="11438">
+      <c r="A11438" s="2"/>
+      <c r="B11438" s="1"/>
+    </row>
+    <row r="11439">
+      <c r="A11439" s="2"/>
+      <c r="B11439" s="1"/>
+    </row>
+    <row r="11440">
+      <c r="A11440" s="2"/>
+      <c r="B11440" s="1"/>
+    </row>
+    <row r="11441">
+      <c r="A11441" s="2"/>
+      <c r="B11441" s="1"/>
+    </row>
+    <row r="11442">
+      <c r="A11442" s="2"/>
+      <c r="B11442" s="1"/>
+    </row>
+    <row r="11443">
+      <c r="A11443" s="2"/>
+      <c r="B11443" s="1"/>
+    </row>
+    <row r="11444">
+      <c r="A11444" s="2"/>
+      <c r="B11444" s="1"/>
+    </row>
+    <row r="11445">
+      <c r="A11445" s="2"/>
+      <c r="B11445" s="1"/>
+    </row>
+    <row r="11446">
+      <c r="A11446" s="2"/>
+      <c r="B11446" s="1"/>
+    </row>
+    <row r="11447">
+      <c r="A11447" s="2"/>
+      <c r="B11447" s="1"/>
+    </row>
+    <row r="11448">
+      <c r="A11448" s="2"/>
+      <c r="B11448" s="1"/>
+    </row>
+    <row r="11449">
+      <c r="A11449" s="2"/>
+      <c r="B11449" s="1"/>
+    </row>
+    <row r="11450">
+      <c r="A11450" s="2"/>
+      <c r="B11450" s="1"/>
+    </row>
+    <row r="11451">
+      <c r="A11451" s="2"/>
+      <c r="B11451" s="1"/>
+    </row>
+    <row r="11452">
+      <c r="A11452" s="2"/>
+      <c r="B11452" s="1"/>
+    </row>
+    <row r="11453">
+      <c r="A11453" s="2"/>
+      <c r="B11453" s="1"/>
+    </row>
+    <row r="11454">
+      <c r="A11454" s="2"/>
+      <c r="B11454" s="1"/>
+    </row>
+    <row r="11455">
+      <c r="A11455" s="2"/>
+      <c r="B11455" s="1"/>
+    </row>
+    <row r="11456">
+      <c r="A11456" s="2"/>
+      <c r="B11456" s="1"/>
+    </row>
+    <row r="11457">
+      <c r="A11457" s="2"/>
+      <c r="B11457" s="1"/>
+    </row>
+    <row r="11458">
+      <c r="A11458" s="2"/>
+      <c r="B11458" s="1"/>
+    </row>
+    <row r="11459">
+      <c r="A11459" s="2"/>
+      <c r="B11459" s="1"/>
+    </row>
+    <row r="11460">
+      <c r="A11460" s="2"/>
+      <c r="B11460" s="1"/>
+    </row>
+    <row r="11461">
+      <c r="A11461" s="2"/>
+      <c r="B11461" s="1"/>
+    </row>
+    <row r="11462">
+      <c r="A11462" s="2"/>
+      <c r="B11462" s="1"/>
+    </row>
+    <row r="11463">
+      <c r="A11463" s="2"/>
+      <c r="B11463" s="1"/>
+    </row>
+    <row r="11464">
+      <c r="A11464" s="2"/>
+      <c r="B11464" s="1"/>
+    </row>
+    <row r="11465">
+      <c r="A11465" s="2"/>
+      <c r="B11465" s="1"/>
+    </row>
+    <row r="11466">
+      <c r="A11466" s="2"/>
+      <c r="B11466" s="1"/>
+    </row>
+    <row r="11467">
+      <c r="A11467" s="2"/>
+      <c r="B11467" s="1"/>
+    </row>
+    <row r="11468">
+      <c r="A11468" s="2"/>
+      <c r="B11468" s="1"/>
+    </row>
+    <row r="11469">
+      <c r="A11469" s="2"/>
+      <c r="B11469" s="1"/>
+    </row>
+    <row r="11470">
+      <c r="A11470" s="2"/>
+      <c r="B11470" s="1"/>
+    </row>
+    <row r="11471">
+      <c r="A11471" s="2"/>
+      <c r="B11471" s="1"/>
+    </row>
+    <row r="11472">
+      <c r="A11472" s="2"/>
+      <c r="B11472" s="1"/>
+    </row>
+    <row r="11473">
+      <c r="A11473" s="2"/>
+      <c r="B11473" s="1"/>
+    </row>
+    <row r="11474">
+      <c r="A11474" s="2"/>
+      <c r="B11474" s="1"/>
+    </row>
+    <row r="11475">
+      <c r="A11475" s="2"/>
+      <c r="B11475" s="1"/>
+    </row>
+    <row r="11476">
+      <c r="A11476" s="2"/>
+      <c r="B11476" s="1"/>
+    </row>
+    <row r="11477">
+      <c r="A11477" s="2"/>
+      <c r="B11477" s="1"/>
+    </row>
+    <row r="11478">
+      <c r="A11478" s="2"/>
+      <c r="B11478" s="1"/>
+    </row>
+    <row r="11479">
+      <c r="A11479" s="2"/>
+      <c r="B11479" s="1"/>
+    </row>
+    <row r="11480">
+      <c r="A11480" s="2"/>
+      <c r="B11480" s="1"/>
+    </row>
+    <row r="11481">
+      <c r="A11481" s="2"/>
+      <c r="B11481" s="1"/>
+    </row>
+    <row r="11482">
+      <c r="A11482" s="2"/>
+      <c r="B11482" s="1"/>
+    </row>
+    <row r="11483">
+      <c r="A11483" s="2"/>
+      <c r="B11483" s="1"/>
+    </row>
+    <row r="11484">
+      <c r="A11484" s="2"/>
+      <c r="B11484" s="1"/>
+    </row>
+    <row r="11485">
+      <c r="A11485" s="2"/>
+      <c r="B11485" s="1"/>
+    </row>
+    <row r="11486">
+      <c r="A11486" s="2"/>
+      <c r="B11486" s="1"/>
+    </row>
+    <row r="11487">
+      <c r="A11487" s="2"/>
+      <c r="B11487" s="1"/>
+    </row>
+    <row r="11488">
+      <c r="A11488" s="2"/>
+      <c r="B11488" s="1"/>
+    </row>
+    <row r="11489">
+      <c r="A11489" s="2"/>
+      <c r="B11489" s="1"/>
+    </row>
+    <row r="11490">
+      <c r="A11490" s="2"/>
+      <c r="B11490" s="1"/>
+    </row>
+    <row r="11491">
+      <c r="A11491" s="2"/>
+      <c r="B11491" s="1"/>
+    </row>
+    <row r="11492">
+      <c r="A11492" s="2"/>
+      <c r="B11492" s="1"/>
+    </row>
+    <row r="11493">
+      <c r="A11493" s="2"/>
+      <c r="B11493" s="1"/>
+    </row>
+    <row r="11494">
+      <c r="A11494" s="2"/>
+      <c r="B11494" s="1"/>
+    </row>
+    <row r="11495">
+      <c r="A11495" s="2"/>
+      <c r="B11495" s="1"/>
+    </row>
+    <row r="11496">
+      <c r="A11496" s="2"/>
+      <c r="B11496" s="1"/>
+    </row>
+    <row r="11497">
+      <c r="A11497" s="2"/>
+      <c r="B11497" s="1"/>
+    </row>
+    <row r="11498">
+      <c r="A11498" s="2"/>
+      <c r="B11498" s="1"/>
+    </row>
+    <row r="11499">
+      <c r="A11499" s="2"/>
+      <c r="B11499" s="1"/>
+    </row>
+    <row r="11500">
+      <c r="A11500" s="2"/>
+      <c r="B11500" s="1"/>
+    </row>
+    <row r="11501">
+      <c r="A11501" s="2"/>
+      <c r="B11501" s="1"/>
+    </row>
+    <row r="11502">
+      <c r="A11502" s="2"/>
+      <c r="B11502" s="1"/>
+    </row>
+    <row r="11503">
+      <c r="A11503" s="2"/>
+      <c r="B11503" s="1"/>
+    </row>
+    <row r="11504">
+      <c r="A11504" s="2"/>
+      <c r="B11504" s="1"/>
+    </row>
+    <row r="11505">
+      <c r="A11505" s="2"/>
+      <c r="B11505" s="1"/>
+    </row>
+    <row r="11506">
+      <c r="A11506" s="2"/>
+      <c r="B11506" s="1"/>
+    </row>
+    <row r="11507">
+      <c r="A11507" s="2"/>
+      <c r="B11507" s="1"/>
+    </row>
+    <row r="11508">
+      <c r="A11508" s="2"/>
+      <c r="B11508" s="1"/>
+    </row>
+    <row r="11509">
+      <c r="A11509" s="2"/>
+      <c r="B11509" s="1"/>
+    </row>
+    <row r="11510">
+      <c r="A11510" s="2"/>
+      <c r="B11510" s="1"/>
+    </row>
+    <row r="11511">
+      <c r="A11511" s="2"/>
+      <c r="B11511" s="1"/>
+    </row>
+    <row r="11512">
+      <c r="A11512" s="2"/>
+      <c r="B11512" s="1"/>
+    </row>
+    <row r="11513">
+      <c r="A11513" s="2"/>
+      <c r="B11513" s="1"/>
+    </row>
+    <row r="11514">
+      <c r="A11514" s="2"/>
+      <c r="B11514" s="1"/>
+    </row>
+    <row r="11515">
+      <c r="A11515" s="2"/>
+      <c r="B11515" s="1"/>
+    </row>
+    <row r="11516">
+      <c r="A11516" s="2"/>
+      <c r="B11516" s="1"/>
+    </row>
+    <row r="11517">
+      <c r="A11517" s="2"/>
+      <c r="B11517" s="1"/>
+    </row>
+    <row r="11518">
+      <c r="A11518" s="2"/>
+      <c r="B11518" s="1"/>
+    </row>
+    <row r="11519">
+      <c r="A11519" s="2"/>
+      <c r="B11519" s="1"/>
+    </row>
+    <row r="11520">
+      <c r="A11520" s="2"/>
+      <c r="B11520" s="1"/>
+    </row>
+    <row r="11521">
+      <c r="A11521" s="2"/>
+      <c r="B11521" s="1"/>
+    </row>
+    <row r="11522">
+      <c r="A11522" s="2"/>
+      <c r="B11522" s="1"/>
+    </row>
+    <row r="11523">
+      <c r="A11523" s="2"/>
+      <c r="B11523" s="1"/>
+    </row>
+    <row r="11524">
+      <c r="A11524" s="2"/>
+      <c r="B11524" s="1"/>
+    </row>
+    <row r="11525">
+      <c r="A11525" s="2"/>
+      <c r="B11525" s="1"/>
+    </row>
+    <row r="11526">
+      <c r="A11526" s="2"/>
+      <c r="B11526" s="1"/>
+    </row>
+    <row r="11527">
+      <c r="A11527" s="2"/>
+      <c r="B11527" s="1"/>
+    </row>
+    <row r="11528">
+      <c r="A11528" s="2"/>
+      <c r="B11528" s="1"/>
+    </row>
+    <row r="11529">
+      <c r="A11529" s="2"/>
+      <c r="B11529" s="1"/>
+    </row>
+    <row r="11530">
+      <c r="A11530" s="2"/>
+      <c r="B11530" s="1"/>
+    </row>
+    <row r="11531">
+      <c r="A11531" s="2"/>
+      <c r="B11531" s="1"/>
+    </row>
+    <row r="11532">
+      <c r="A11532" s="2"/>
+      <c r="B11532" s="1"/>
+    </row>
+    <row r="11533">
+      <c r="A11533" s="2"/>
+      <c r="B11533" s="1"/>
+    </row>
+    <row r="11534">
+      <c r="A11534" s="2"/>
+      <c r="B11534" s="1"/>
+    </row>
+    <row r="11535">
+      <c r="A11535" s="2"/>
+      <c r="B11535" s="1"/>
+    </row>
+    <row r="11536">
+      <c r="A11536" s="2"/>
+      <c r="B11536" s="1"/>
+    </row>
+    <row r="11537">
+      <c r="A11537" s="2"/>
+      <c r="B11537" s="1"/>
+    </row>
+    <row r="11538">
+      <c r="A11538" s="2"/>
+      <c r="B11538" s="1"/>
+    </row>
+    <row r="11539">
+      <c r="A11539" s="2"/>
+      <c r="B11539" s="1"/>
+    </row>
+    <row r="11540">
+      <c r="A11540" s="2"/>
+      <c r="B11540" s="1"/>
+    </row>
+    <row r="11541">
+      <c r="A11541" s="2"/>
+      <c r="B11541" s="1"/>
+    </row>
+    <row r="11542">
+      <c r="A11542" s="2"/>
+      <c r="B11542" s="1"/>
+    </row>
+    <row r="11543">
+      <c r="A11543" s="2"/>
+      <c r="B11543" s="1"/>
+    </row>
+    <row r="11544">
+      <c r="A11544" s="2"/>
+      <c r="B11544" s="1"/>
+    </row>
+    <row r="11545">
+      <c r="A11545" s="2"/>
+      <c r="B11545" s="1"/>
+    </row>
+    <row r="11546">
+      <c r="A11546" s="2"/>
+      <c r="B11546" s="1"/>
+    </row>
+    <row r="11547">
+      <c r="A11547" s="2"/>
+      <c r="B11547" s="1"/>
+    </row>
+    <row r="11548">
+      <c r="A11548" s="2"/>
+      <c r="B11548" s="1"/>
+    </row>
+    <row r="11549">
+      <c r="A11549" s="2"/>
+      <c r="B11549" s="1"/>
+    </row>
+    <row r="11550">
+      <c r="A11550" s="2"/>
+      <c r="B11550" s="1"/>
+    </row>
+    <row r="11551">
+      <c r="A11551" s="2"/>
+      <c r="B11551" s="1"/>
+    </row>
+    <row r="11552">
+      <c r="A11552" s="2"/>
+      <c r="B11552" s="1"/>
+    </row>
+    <row r="11553">
+      <c r="A11553" s="2"/>
+      <c r="B11553" s="1"/>
+    </row>
+    <row r="11554">
+      <c r="A11554" s="2"/>
+      <c r="B11554" s="1"/>
+    </row>
+    <row r="11555">
+      <c r="A11555" s="2"/>
+      <c r="B11555" s="1"/>
+    </row>
+    <row r="11556">
+      <c r="A11556" s="2"/>
+      <c r="B11556" s="1"/>
+    </row>
+    <row r="11557">
+      <c r="A11557" s="2"/>
+      <c r="B11557" s="1"/>
+    </row>
+    <row r="11558">
+      <c r="A11558" s="2"/>
+      <c r="B11558" s="1"/>
+    </row>
+    <row r="11559">
+      <c r="A11559" s="2"/>
+      <c r="B11559" s="1"/>
+    </row>
+    <row r="11560">
+      <c r="A11560" s="2"/>
+      <c r="B11560" s="1"/>
+    </row>
+    <row r="11561">
+      <c r="A11561" s="2"/>
+      <c r="B11561" s="1"/>
+    </row>
+    <row r="11562">
+      <c r="A11562" s="2"/>
+      <c r="B11562" s="1"/>
+    </row>
+    <row r="11563">
+      <c r="A11563" s="2"/>
+      <c r="B11563" s="1"/>
+    </row>
+    <row r="11564">
+      <c r="A11564" s="2"/>
+      <c r="B11564" s="1"/>
+    </row>
+    <row r="11565">
+      <c r="A11565" s="2"/>
+      <c r="B11565" s="1"/>
+    </row>
+    <row r="11566">
+      <c r="A11566" s="2"/>
+      <c r="B11566" s="1"/>
+    </row>
+    <row r="11567">
+      <c r="A11567" s="2"/>
+      <c r="B11567" s="1"/>
+    </row>
+    <row r="11568">
+      <c r="A11568" s="2"/>
+      <c r="B11568" s="1"/>
+    </row>
+    <row r="11569">
+      <c r="A11569" s="2"/>
+      <c r="B11569" s="1"/>
+    </row>
+    <row r="11570">
+      <c r="A11570" s="2"/>
+      <c r="B11570" s="1"/>
+    </row>
+    <row r="11571">
+      <c r="A11571" s="2"/>
+      <c r="B11571" s="1"/>
+    </row>
+    <row r="11572">
+      <c r="A11572" s="2"/>
+      <c r="B11572" s="1"/>
+    </row>
+    <row r="11573">
+      <c r="A11573" s="2"/>
+      <c r="B11573" s="1"/>
+    </row>
+    <row r="11574">
+      <c r="A11574" s="2"/>
+      <c r="B11574" s="1"/>
+    </row>
+    <row r="11575">
+      <c r="A11575" s="2"/>
+      <c r="B11575" s="1"/>
+    </row>
+    <row r="11576">
+      <c r="A11576" s="2"/>
+      <c r="B11576" s="1"/>
+    </row>
+    <row r="11577">
+      <c r="A11577" s="2"/>
+      <c r="B11577" s="1"/>
+    </row>
+    <row r="11578">
+      <c r="A11578" s="2"/>
+      <c r="B11578" s="1"/>
+    </row>
+    <row r="11579">
+      <c r="A11579" s="2"/>
+      <c r="B11579" s="1"/>
+    </row>
+    <row r="11580">
+      <c r="A11580" s="2"/>
+      <c r="B11580" s="1"/>
+    </row>
+    <row r="11581">
+      <c r="A11581" s="2"/>
+      <c r="B11581" s="1"/>
+    </row>
+    <row r="11582">
+      <c r="A11582" s="2"/>
+      <c r="B11582" s="1"/>
+    </row>
+    <row r="11583">
+      <c r="A11583" s="2"/>
+      <c r="B11583" s="1"/>
+    </row>
+    <row r="11584">
+      <c r="A11584" s="2"/>
+      <c r="B11584" s="1"/>
+    </row>
+    <row r="11585">
+      <c r="A11585" s="2"/>
+      <c r="B11585" s="1"/>
+    </row>
+    <row r="11586">
+      <c r="A11586" s="2"/>
+      <c r="B11586" s="1"/>
+    </row>
+    <row r="11587">
+      <c r="A11587" s="2"/>
+      <c r="B11587" s="1"/>
+    </row>
+    <row r="11588">
+      <c r="A11588" s="2"/>
+      <c r="B11588" s="1"/>
+    </row>
+    <row r="11589">
+      <c r="A11589" s="2"/>
+      <c r="B11589" s="1"/>
+    </row>
+    <row r="11590">
+      <c r="A11590" s="2"/>
+      <c r="B11590" s="1"/>
+    </row>
+    <row r="11591">
+      <c r="A11591" s="2"/>
+      <c r="B11591" s="1"/>
+    </row>
+    <row r="11592">
+      <c r="A11592" s="2"/>
+      <c r="B11592" s="1"/>
+    </row>
+    <row r="11593">
+      <c r="A11593" s="2"/>
+      <c r="B11593" s="1"/>
+    </row>
+    <row r="11594">
+      <c r="A11594" s="2"/>
+      <c r="B11594" s="1"/>
+    </row>
+    <row r="11595">
+      <c r="A11595" s="2"/>
+      <c r="B11595" s="1"/>
+    </row>
+    <row r="11596">
+      <c r="A11596" s="2"/>
+      <c r="B11596" s="1"/>
+    </row>
+    <row r="11597">
+      <c r="A11597" s="2"/>
+      <c r="B11597" s="1"/>
+    </row>
+    <row r="11598">
+      <c r="A11598" s="2"/>
+      <c r="B11598" s="1"/>
+    </row>
+    <row r="11599">
+      <c r="A11599" s="2"/>
+      <c r="B11599" s="1"/>
+    </row>
+    <row r="11600">
+      <c r="A11600" s="2"/>
+      <c r="B11600" s="1"/>
+    </row>
+    <row r="11601">
+      <c r="A11601" s="2"/>
+      <c r="B11601" s="1"/>
+    </row>
+    <row r="11602">
+      <c r="A11602" s="2"/>
+      <c r="B11602" s="1"/>
+    </row>
+    <row r="11603">
+      <c r="A11603" s="2"/>
+      <c r="B11603" s="1"/>
+    </row>
+    <row r="11604">
+      <c r="A11604" s="2"/>
+      <c r="B11604" s="1"/>
+    </row>
+    <row r="11605">
+      <c r="A11605" s="2"/>
+      <c r="B11605" s="1"/>
+    </row>
+    <row r="11606">
+      <c r="A11606" s="2"/>
+      <c r="B11606" s="1"/>
+    </row>
+    <row r="11607">
+      <c r="A11607" s="2"/>
+      <c r="B11607" s="1"/>
+    </row>
+    <row r="11608">
+      <c r="A11608" s="2"/>
+      <c r="B11608" s="1"/>
+    </row>
+    <row r="11609">
+      <c r="A11609" s="2"/>
+      <c r="B11609" s="1"/>
+    </row>
+    <row r="11610">
+      <c r="A11610" s="2"/>
+      <c r="B11610" s="1"/>
+    </row>
+    <row r="11611">
+      <c r="A11611" s="2"/>
+      <c r="B11611" s="1"/>
+    </row>
+    <row r="11612">
+      <c r="A11612" s="2"/>
+      <c r="B11612" s="1"/>
+    </row>
+    <row r="11613">
+      <c r="A11613" s="2"/>
+      <c r="B11613" s="1"/>
+    </row>
+    <row r="11614">
+      <c r="A11614" s="2"/>
+      <c r="B11614" s="1"/>
+    </row>
+    <row r="11615">
+      <c r="A11615" s="2"/>
+      <c r="B11615" s="1"/>
+    </row>
+    <row r="11616">
+      <c r="A11616" s="2"/>
+      <c r="B11616" s="1"/>
+    </row>
+    <row r="11617">
+      <c r="A11617" s="2"/>
+      <c r="B11617" s="1"/>
+    </row>
+    <row r="11618">
+      <c r="A11618" s="2"/>
+      <c r="B11618" s="1"/>
+    </row>
+    <row r="11619">
+      <c r="A11619" s="2"/>
+      <c r="B11619" s="1"/>
+    </row>
+    <row r="11620">
+      <c r="A11620" s="2"/>
+      <c r="B11620" s="1"/>
+    </row>
+    <row r="11621">
+      <c r="A11621" s="2"/>
+      <c r="B11621" s="1"/>
+    </row>
+    <row r="11622">
+      <c r="A11622" s="2"/>
+      <c r="B11622" s="1"/>
+    </row>
+    <row r="11623">
+      <c r="A11623" s="2"/>
+      <c r="B11623" s="1"/>
+    </row>
+    <row r="11624">
+      <c r="A11624" s="2"/>
+      <c r="B11624" s="1"/>
+    </row>
+    <row r="11625">
+      <c r="A11625" s="2"/>
+      <c r="B11625" s="1"/>
+    </row>
+    <row r="11626">
+      <c r="A11626" s="2"/>
+      <c r="B11626" s="1"/>
+    </row>
+    <row r="11627">
+      <c r="A11627" s="2"/>
+      <c r="B11627" s="1"/>
+    </row>
+    <row r="11628">
+      <c r="A11628" s="2"/>
+      <c r="B11628" s="1"/>
+    </row>
+    <row r="11629">
+      <c r="A11629" s="2"/>
+      <c r="B11629" s="1"/>
+    </row>
+    <row r="11630">
+      <c r="A11630" s="2"/>
+      <c r="B11630" s="1"/>
+    </row>
+    <row r="11631">
+      <c r="A11631" s="2"/>
+      <c r="B11631" s="1"/>
+    </row>
+    <row r="11632">
+      <c r="A11632" s="2"/>
+      <c r="B11632" s="1"/>
+    </row>
+    <row r="11633">
+      <c r="A11633" s="2"/>
+      <c r="B11633" s="1"/>
+    </row>
+    <row r="11634">
+      <c r="A11634" s="2"/>
+      <c r="B11634" s="1"/>
+    </row>
+    <row r="11635">
+      <c r="A11635" s="2"/>
+      <c r="B11635" s="1"/>
+    </row>
+    <row r="11636">
+      <c r="A11636" s="2"/>
+      <c r="B11636" s="1"/>
+    </row>
+    <row r="11637">
+      <c r="A11637" s="2"/>
+      <c r="B11637" s="1"/>
+    </row>
+    <row r="11638">
+      <c r="A11638" s="2"/>
+      <c r="B11638" s="1"/>
+    </row>
+    <row r="11639">
+      <c r="A11639" s="2"/>
+      <c r="B11639" s="1"/>
+    </row>
+    <row r="11640">
+      <c r="A11640" s="2"/>
+      <c r="B11640" s="1"/>
+    </row>
+    <row r="11641">
+      <c r="A11641" s="2"/>
+      <c r="B11641" s="1"/>
+    </row>
+    <row r="11642">
+      <c r="A11642" s="2"/>
+      <c r="B11642" s="1"/>
+    </row>
+    <row r="11643">
+      <c r="A11643" s="2"/>
+      <c r="B11643" s="1"/>
+    </row>
+    <row r="11644">
+      <c r="A11644" s="2"/>
+      <c r="B11644" s="1"/>
+    </row>
+    <row r="11645">
+      <c r="A11645" s="2"/>
+      <c r="B11645" s="1"/>
+    </row>
+    <row r="11646">
+      <c r="A11646" s="2"/>
+      <c r="B11646" s="1"/>
+    </row>
+    <row r="11647">
+      <c r="A11647" s="2"/>
+      <c r="B11647" s="1"/>
+    </row>
+    <row r="11648">
+      <c r="A11648" s="2"/>
+      <c r="B11648" s="1"/>
+    </row>
+    <row r="11649">
+      <c r="A11649" s="2"/>
+      <c r="B11649" s="1"/>
+    </row>
+    <row r="11650">
+      <c r="A11650" s="2"/>
+      <c r="B11650" s="1"/>
+    </row>
+    <row r="11651">
+      <c r="A11651" s="2"/>
+      <c r="B11651" s="1"/>
+    </row>
+    <row r="11652">
+      <c r="A11652" s="2"/>
+      <c r="B11652" s="1"/>
+    </row>
+    <row r="11653">
+      <c r="A11653" s="2"/>
+      <c r="B11653" s="1"/>
+    </row>
+    <row r="11654">
+      <c r="A11654" s="2"/>
+      <c r="B11654" s="1"/>
+    </row>
+    <row r="11655">
+      <c r="A11655" s="2"/>
+      <c r="B11655" s="1"/>
+    </row>
+    <row r="11656">
+      <c r="A11656" s="2"/>
+      <c r="B11656" s="1"/>
+    </row>
+    <row r="11657">
+      <c r="A11657" s="2"/>
+      <c r="B11657" s="1"/>
+    </row>
+    <row r="11658">
+      <c r="A11658" s="2"/>
+      <c r="B11658" s="1"/>
+    </row>
+    <row r="11659">
+      <c r="A11659" s="2"/>
+      <c r="B11659" s="1"/>
+    </row>
+    <row r="11660">
+      <c r="A11660" s="2"/>
+      <c r="B11660" s="1"/>
+    </row>
+    <row r="11661">
+      <c r="A11661" s="2"/>
+      <c r="B11661" s="1"/>
+    </row>
+    <row r="11662">
+      <c r="A11662" s="2"/>
+      <c r="B11662" s="1"/>
+    </row>
+    <row r="11663">
+      <c r="A11663" s="2"/>
+      <c r="B11663" s="1"/>
+    </row>
+    <row r="11664">
+      <c r="A11664" s="2"/>
+      <c r="B11664" s="1"/>
+    </row>
+    <row r="11665">
+      <c r="A11665" s="2"/>
+      <c r="B11665" s="1"/>
+    </row>
+    <row r="11666">
+      <c r="A11666" s="2"/>
+      <c r="B11666" s="1"/>
+    </row>
+    <row r="11667">
+      <c r="A11667" s="2"/>
+      <c r="B11667" s="1"/>
+    </row>
+    <row r="11668">
+      <c r="A11668" s="2"/>
+      <c r="B11668" s="1"/>
+    </row>
+    <row r="11669">
+      <c r="A11669" s="2"/>
+      <c r="B11669" s="1"/>
+    </row>
+    <row r="11670">
+      <c r="A11670" s="2"/>
+      <c r="B11670" s="1"/>
+    </row>
+    <row r="11671">
+      <c r="A11671" s="2"/>
+      <c r="B11671" s="1"/>
+    </row>
+    <row r="11672">
+      <c r="A11672" s="2"/>
+      <c r="B11672" s="1"/>
+    </row>
+    <row r="11673">
+      <c r="A11673" s="2"/>
+      <c r="B11673" s="1"/>
+    </row>
+    <row r="11674">
+      <c r="A11674" s="2"/>
+      <c r="B11674" s="1"/>
+    </row>
+    <row r="11675">
+      <c r="A11675" s="2"/>
+      <c r="B11675" s="1"/>
+    </row>
+    <row r="11676">
+      <c r="A11676" s="2"/>
+      <c r="B11676" s="1"/>
+    </row>
+    <row r="11677">
+      <c r="A11677" s="2"/>
+      <c r="B11677" s="1"/>
+    </row>
+    <row r="11678">
+      <c r="A11678" s="2"/>
+      <c r="B11678" s="1"/>
+    </row>
+    <row r="11679">
+      <c r="A11679" s="2"/>
+      <c r="B11679" s="1"/>
+    </row>
+    <row r="11680">
+      <c r="A11680" s="2"/>
+      <c r="B11680" s="1"/>
+    </row>
+    <row r="11681">
+      <c r="A11681" s="2"/>
+      <c r="B11681" s="1"/>
+    </row>
+    <row r="11682">
+      <c r="A11682" s="2"/>
+      <c r="B11682" s="1"/>
+    </row>
+    <row r="11683">
+      <c r="A11683" s="2"/>
+      <c r="B11683" s="1"/>
+    </row>
+    <row r="11684">
+      <c r="A11684" s="2"/>
+      <c r="B11684" s="1"/>
+    </row>
+    <row r="11685">
+      <c r="A11685" s="2"/>
+      <c r="B11685" s="1"/>
+    </row>
+    <row r="11686">
+      <c r="A11686" s="2"/>
+      <c r="B11686" s="1"/>
+    </row>
+    <row r="11687">
+      <c r="A11687" s="2"/>
+      <c r="B11687" s="1"/>
+    </row>
+    <row r="11688">
+      <c r="A11688" s="2"/>
+      <c r="B11688" s="1"/>
+    </row>
+    <row r="11689">
+      <c r="A11689" s="2"/>
+      <c r="B11689" s="1"/>
+    </row>
+    <row r="11690">
+      <c r="A11690" s="2"/>
+      <c r="B11690" s="1"/>
+    </row>
+    <row r="11691">
+      <c r="A11691" s="2"/>
+      <c r="B11691" s="1"/>
+    </row>
+    <row r="11692">
+      <c r="A11692" s="2"/>
+      <c r="B11692" s="1"/>
+    </row>
+    <row r="11693">
+      <c r="A11693" s="2"/>
+      <c r="B11693" s="1"/>
+    </row>
+    <row r="11694">
+      <c r="A11694" s="2"/>
+      <c r="B11694" s="1"/>
+    </row>
+    <row r="11695">
+      <c r="A11695" s="2"/>
+      <c r="B11695" s="1"/>
+    </row>
+    <row r="11696">
+      <c r="A11696" s="2"/>
+      <c r="B11696" s="1"/>
+    </row>
+    <row r="11697">
+      <c r="A11697" s="2"/>
+      <c r="B11697" s="1"/>
+    </row>
+    <row r="11698">
+      <c r="A11698" s="2"/>
+      <c r="B11698" s="1"/>
+    </row>
+    <row r="11699">
+      <c r="A11699" s="2"/>
+      <c r="B11699" s="1"/>
+    </row>
+    <row r="11700">
+      <c r="A11700" s="2"/>
+      <c r="B11700" s="1"/>
+    </row>
+    <row r="11701">
+      <c r="A11701" s="2"/>
+      <c r="B11701" s="1"/>
+    </row>
+    <row r="11702">
+      <c r="A11702" s="2"/>
+      <c r="B11702" s="1"/>
+    </row>
+    <row r="11703">
+      <c r="A11703" s="2"/>
+      <c r="B11703" s="1"/>
+    </row>
+    <row r="11704">
+      <c r="A11704" s="2"/>
+      <c r="B11704" s="1"/>
+    </row>
+    <row r="11705">
+      <c r="A11705" s="2"/>
+      <c r="B11705" s="1"/>
+    </row>
+    <row r="11706">
+      <c r="A11706" s="2"/>
+      <c r="B11706" s="1"/>
+    </row>
+    <row r="11707">
+      <c r="A11707" s="2"/>
+      <c r="B11707" s="1"/>
+    </row>
+    <row r="11708">
+      <c r="A11708" s="2"/>
+      <c r="B11708" s="1"/>
+    </row>
+    <row r="11709">
+      <c r="A11709" s="2"/>
+      <c r="B11709" s="1"/>
+    </row>
+    <row r="11710">
+      <c r="A11710" s="2"/>
+      <c r="B11710" s="1"/>
+    </row>
+    <row r="11711">
+      <c r="A11711" s="2"/>
+      <c r="B11711" s="1"/>
+    </row>
+    <row r="11712">
+      <c r="A11712" s="2"/>
+      <c r="B11712" s="1"/>
+    </row>
+    <row r="11713">
+      <c r="A11713" s="2"/>
+      <c r="B11713" s="1"/>
+    </row>
+    <row r="11714">
+      <c r="A11714" s="2"/>
+      <c r="B11714" s="1"/>
+    </row>
+    <row r="11715">
+      <c r="A11715" s="2"/>
+      <c r="B11715" s="1"/>
+    </row>
+    <row r="11716">
+      <c r="A11716" s="2"/>
+      <c r="B11716" s="1"/>
+    </row>
+    <row r="11717">
+      <c r="A11717" s="2"/>
+      <c r="B11717" s="1"/>
+    </row>
+    <row r="11718">
+      <c r="A11718" s="2"/>
+      <c r="B11718" s="1"/>
+    </row>
+    <row r="11719">
+      <c r="A11719" s="2"/>
+      <c r="B11719" s="1"/>
+    </row>
+    <row r="11720">
+      <c r="A11720" s="2"/>
+      <c r="B11720" s="1"/>
+    </row>
+    <row r="11721">
+      <c r="A11721" s="2"/>
+      <c r="B11721" s="1"/>
+    </row>
+    <row r="11722">
+      <c r="A11722" s="2"/>
+      <c r="B11722" s="1"/>
+    </row>
+    <row r="11723">
+      <c r="A11723" s="2"/>
+      <c r="B11723" s="1"/>
+    </row>
+    <row r="11724">
+      <c r="A11724" s="2"/>
+      <c r="B11724" s="1"/>
+    </row>
+    <row r="11725">
+      <c r="A11725" s="2"/>
+      <c r="B11725" s="1"/>
+    </row>
+    <row r="11726">
+      <c r="A11726" s="2"/>
+      <c r="B11726" s="1"/>
+    </row>
+    <row r="11727">
+      <c r="A11727" s="2"/>
+      <c r="B11727" s="1"/>
+    </row>
+    <row r="11728">
+      <c r="A11728" s="2"/>
+      <c r="B11728" s="1"/>
+    </row>
+    <row r="11729">
+      <c r="A11729" s="2"/>
+      <c r="B11729" s="1"/>
+    </row>
+    <row r="11730">
+      <c r="A11730" s="2"/>
+      <c r="B11730" s="1"/>
+    </row>
+    <row r="11731">
+      <c r="A11731" s="2"/>
+      <c r="B11731" s="1"/>
+    </row>
+    <row r="11732">
+      <c r="A11732" s="2"/>
+      <c r="B11732" s="1"/>
+    </row>
+    <row r="11733">
+      <c r="A11733" s="2"/>
+      <c r="B11733" s="1"/>
+    </row>
+    <row r="11734">
+      <c r="A11734" s="2"/>
+      <c r="B11734" s="1"/>
+    </row>
+    <row r="11735">
+      <c r="A11735" s="2"/>
+      <c r="B11735" s="1"/>
+    </row>
+    <row r="11736">
+      <c r="A11736" s="2"/>
+      <c r="B11736" s="1"/>
+    </row>
+    <row r="11737">
+      <c r="A11737" s="2"/>
+      <c r="B11737" s="1"/>
+    </row>
+    <row r="11738">
+      <c r="A11738" s="2"/>
+      <c r="B11738" s="1"/>
+    </row>
+    <row r="11739">
+      <c r="A11739" s="2"/>
+      <c r="B11739" s="1"/>
+    </row>
+    <row r="11740">
+      <c r="A11740" s="2"/>
+      <c r="B11740" s="1"/>
+    </row>
+    <row r="11741">
+      <c r="A11741" s="2"/>
+      <c r="B11741" s="1"/>
+    </row>
+    <row r="11742">
+      <c r="A11742" s="2"/>
+      <c r="B11742" s="1"/>
+    </row>
+    <row r="11743">
+      <c r="A11743" s="2"/>
+      <c r="B11743" s="1"/>
+    </row>
+    <row r="11744">
+      <c r="A11744" s="2"/>
+      <c r="B11744" s="1"/>
+    </row>
+    <row r="11745">
+      <c r="A11745" s="2"/>
+      <c r="B11745" s="1"/>
+    </row>
+    <row r="11746">
+      <c r="A11746" s="2"/>
+      <c r="B11746" s="1"/>
+    </row>
+    <row r="11747">
+      <c r="A11747" s="2"/>
+      <c r="B11747" s="1"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
